--- a/ofc/estimates/estimates/sahadev sir/estimate.xlsx
+++ b/ofc/estimates/estimates/sahadev sir/estimate.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\estimates\sahadev sir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\081-082\ofc\ofc\estimates\estimates\sahadev sir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="24" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -226,18 +226,12 @@
     <t>Length (m)</t>
   </si>
   <si>
-    <t>Date:2081/09/28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date:2081/12/06       </t>
   </si>
   <si>
     <t xml:space="preserve">F.Y:2081/2082           </t>
   </si>
   <si>
-    <t>Project:- नगर अस्पताल मर्मत</t>
-  </si>
-  <si>
     <t>xfO8«f]lns PS;fe]6/  k|of]u u/L   df6f] vGg] sfd</t>
   </si>
   <si>
@@ -491,15 +485,21 @@
   </si>
   <si>
     <t>LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project:- राष्ट्रिय मा. बि. पुस्तकालय पुर्वाधार निर्माण </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:                  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -685,7 +685,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,14 +716,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,7 +732,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,7 +756,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,7 +801,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,7 +814,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -830,7 +830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -863,12 +863,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,21 +905,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,23 +927,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1792,135 +1792,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I260" sqref="I260"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1956,12 +1956,12 @@
       </c>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>41</v>
+      <c r="B9" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="55"/>
@@ -1974,10 +1974,10 @@
       <c r="K9" s="21"/>
       <c r="M9" s="71"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="96" t="s">
-        <v>54</v>
+      <c r="B10" s="75" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="55"/>
@@ -1990,10 +1990,10 @@
       <c r="K10" s="21"/>
       <c r="M10" s="71"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="57"/>
       <c r="B11" s="61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="59">
         <v>5</v>
@@ -2020,10 +2020,10 @@
       <c r="K11" s="58"/>
       <c r="M11" s="71"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="57"/>
       <c r="B12" s="61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="59">
         <v>5</v>
@@ -2050,10 +2050,10 @@
       <c r="K12" s="58"/>
       <c r="M12" s="71"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57"/>
-      <c r="B13" s="96" t="s">
-        <v>53</v>
+      <c r="B13" s="75" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="59"/>
       <c r="D13" s="12"/>
@@ -2066,10 +2066,10 @@
       <c r="K13" s="58"/>
       <c r="M13" s="71"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57"/>
       <c r="B14" s="61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="59">
         <v>3</v>
@@ -2095,10 +2095,10 @@
       <c r="K14" s="58"/>
       <c r="M14" s="71"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="57"/>
       <c r="B15" s="61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="59">
         <v>9</v>
@@ -2124,10 +2124,10 @@
       <c r="K15" s="58"/>
       <c r="M15" s="71"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="57"/>
       <c r="B16" s="61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="59">
         <v>5</v>
@@ -2153,7 +2153,7 @@
       <c r="K16" s="58"/>
       <c r="M16" s="71"/>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="35" t="s">
         <v>33</v>
@@ -2167,7 +2167,7 @@
         <v>126.17806395671357</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I17" s="23">
         <v>58.36</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="35"/>
       <c r="C18" s="19"/>
@@ -2191,12 +2191,12 @@
       <c r="J18" s="39"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2</v>
       </c>
-      <c r="B19" s="93" t="s">
-        <v>45</v>
+      <c r="B19" s="72" t="s">
+        <v>43</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -2208,10 +2208,10 @@
       <c r="J19" s="32"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
-      <c r="B20" s="96" t="str">
-        <f>B10</f>
+      <c r="B20" s="75" t="str">
+        <f t="shared" ref="B20:B26" si="2">B10</f>
         <v>-footing</v>
       </c>
       <c r="C20" s="19"/>
@@ -2224,10 +2224,10 @@
       <c r="J20" s="32"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="57"/>
       <c r="B21" s="61" t="str">
-        <f>B11</f>
+        <f t="shared" si="2"/>
         <v>-F1</v>
       </c>
       <c r="C21" s="59">
@@ -2250,10 +2250,10 @@
       <c r="K21" s="58"/>
       <c r="M21" s="71"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="57"/>
       <c r="B22" s="61" t="str">
-        <f>B12</f>
+        <f t="shared" si="2"/>
         <v>-CF1</v>
       </c>
       <c r="C22" s="59">
@@ -2276,10 +2276,10 @@
       <c r="K22" s="58"/>
       <c r="M22" s="71"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="57"/>
-      <c r="B23" s="96" t="str">
-        <f>B13</f>
+      <c r="B23" s="75" t="str">
+        <f t="shared" si="2"/>
         <v>-Base beam and Tie beam</v>
       </c>
       <c r="C23" s="59"/>
@@ -2293,10 +2293,10 @@
       <c r="K23" s="58"/>
       <c r="M23" s="71"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="57"/>
       <c r="B24" s="61" t="str">
-        <f>B14</f>
+        <f t="shared" si="2"/>
         <v>-Grid A(1-2), B(1-2), C(1-2)</v>
       </c>
       <c r="C24" s="59">
@@ -2322,10 +2322,10 @@
       <c r="K24" s="58"/>
       <c r="M24" s="71"/>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="57"/>
       <c r="B25" s="61" t="str">
-        <f>B15</f>
+        <f t="shared" si="2"/>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C25" s="59">
@@ -2333,16 +2333,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" ref="D25:E25" si="2">D15</f>
+        <f t="shared" ref="D25:E25" si="3">D15</f>
         <v>2.0064004876562023</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="62">
-        <f t="shared" ref="G25:G26" si="3">PRODUCT(C25:F25)</f>
+        <f t="shared" ref="G25:G26" si="4">PRODUCT(C25:F25)</f>
         <v>5.4172813166717457</v>
       </c>
       <c r="H25" s="60"/>
@@ -2351,10 +2351,10 @@
       <c r="K25" s="58"/>
       <c r="M25" s="71"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="57"/>
       <c r="B26" s="61" t="str">
-        <f>B16</f>
+        <f t="shared" si="2"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C26" s="59">
@@ -2362,16 +2362,16 @@
         <v>5</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" ref="D26:E26" si="4">D16</f>
+        <f t="shared" ref="D26:E26" si="5">D16</f>
         <v>2.1081987199024685</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1622980798537026</v>
       </c>
       <c r="H26" s="60"/>
@@ -2380,7 +2380,7 @@
       <c r="K26" s="58"/>
       <c r="M26" s="71"/>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="35" t="s">
         <v>33</v>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="29"/>
       <c r="C28" s="19"/>
@@ -2418,12 +2418,12 @@
       <c r="J28" s="32"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>3</v>
       </c>
-      <c r="B29" s="93" t="s">
-        <v>46</v>
+      <c r="B29" s="72" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
@@ -2435,9 +2435,9 @@
       <c r="J29" s="32"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="96" t="str">
+      <c r="B30" s="75" t="str">
         <f>B20</f>
         <v>-footing</v>
       </c>
@@ -2451,22 +2451,22 @@
       <c r="J30" s="32"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="57"/>
       <c r="B31" s="61" t="str">
         <f>B21</f>
         <v>-F1</v>
       </c>
       <c r="C31" s="59">
-        <f>C21</f>
+        <f t="shared" ref="C31:E32" si="6">C21</f>
         <v>5</v>
       </c>
       <c r="D31" s="12">
-        <f>D21</f>
+        <f t="shared" si="6"/>
         <v>1.8287107589149649</v>
       </c>
       <c r="E31" s="12">
-        <f>E21</f>
+        <f t="shared" si="6"/>
         <v>1.8287107589149649</v>
       </c>
       <c r="F31" s="12">
@@ -2482,22 +2482,22 @@
       <c r="K31" s="58"/>
       <c r="M31" s="71"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="57"/>
       <c r="B32" s="61" t="str">
         <f>B22</f>
         <v>-CF1</v>
       </c>
       <c r="C32" s="59">
-        <f>C22</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D32" s="12">
-        <f>D22</f>
+        <f t="shared" si="6"/>
         <v>2.1334958854007922</v>
       </c>
       <c r="E32" s="12">
-        <f>E22</f>
+        <f t="shared" si="6"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="F32" s="12">
@@ -2513,9 +2513,9 @@
       <c r="K32" s="58"/>
       <c r="M32" s="71"/>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57"/>
-      <c r="B33" s="96" t="str">
+      <c r="B33" s="75" t="str">
         <f>B23</f>
         <v>-Base beam and Tie beam</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="K33" s="58"/>
       <c r="M33" s="71"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="61" t="str">
         <f>B24</f>
@@ -2560,18 +2560,18 @@
       <c r="K34" s="58"/>
       <c r="M34" s="71"/>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="61" t="str">
-        <f t="shared" ref="B35:D36" si="5">B25</f>
+        <f t="shared" ref="B35:D36" si="7">B25</f>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C35" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0064004876562023</v>
       </c>
       <c r="E35" s="12">
@@ -2581,7 +2581,7 @@
         <v>0.1</v>
       </c>
       <c r="G35" s="62">
-        <f t="shared" ref="G35:G36" si="6">PRODUCT(C35:F35)</f>
+        <f t="shared" ref="G35:G36" si="8">PRODUCT(C35:F35)</f>
         <v>0.41532490094483387</v>
       </c>
       <c r="H35" s="60"/>
@@ -2590,18 +2590,18 @@
       <c r="K35" s="58"/>
       <c r="M35" s="71"/>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C36" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="D36" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1081987199024685</v>
       </c>
       <c r="E36" s="12">
@@ -2611,7 +2611,7 @@
         <v>0.1</v>
       </c>
       <c r="G36" s="62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.24244285278878391</v>
       </c>
       <c r="H36" s="60"/>
@@ -2620,7 +2620,7 @@
       <c r="K36" s="58"/>
       <c r="M36" s="71"/>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="35" t="s">
         <v>33</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="29"/>
       <c r="C38" s="19"/>
@@ -2658,12 +2658,12 @@
       <c r="J38" s="32"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>4</v>
       </c>
-      <c r="B39" s="93" t="s">
-        <v>47</v>
+      <c r="B39" s="72" t="s">
+        <v>45</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>7</v>
@@ -2672,22 +2672,22 @@
         <v>36</v>
       </c>
       <c r="E39" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="56" t="s">
         <v>48</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>50</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
       <c r="J39" s="32"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="96" t="str">
+      <c r="B40" s="75" t="str">
         <f>B20</f>
         <v>-footing</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="J40" s="32"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="57"/>
       <c r="B41" s="61" t="str">
         <f>B31</f>
@@ -2733,7 +2733,7 @@
       <c r="K41" s="58"/>
       <c r="M41" s="71"/>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="61"/>
       <c r="C42" s="59">
@@ -2745,15 +2745,15 @@
         <v>1.8287107589149649</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" ref="E42:E44" si="7">12*12/162</f>
+        <f t="shared" ref="E42:E44" si="9">12*12/162</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" ref="F42:F44" si="8">PRODUCT(C42:E42)</f>
+        <f t="shared" ref="F42:F44" si="10">PRODUCT(C42:E42)</f>
         <v>97.531240475464784</v>
       </c>
       <c r="G42" s="62">
-        <f t="shared" ref="G42:G91" si="9">F42/1000</f>
+        <f t="shared" ref="G42:G91" si="11">F42/1000</f>
         <v>9.7531240475464784E-2</v>
       </c>
       <c r="H42" s="60"/>
@@ -2762,7 +2762,7 @@
       <c r="K42" s="58"/>
       <c r="M42" s="71"/>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="61" t="str">
         <f>B32</f>
@@ -2777,15 +2777,15 @@
         <v>2.1334958854007922</v>
       </c>
       <c r="E43" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>218.09069050763651</v>
       </c>
       <c r="G43" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21809069050763652</v>
       </c>
       <c r="H43" s="60"/>
@@ -2794,7 +2794,7 @@
       <c r="K43" s="58"/>
       <c r="M43" s="71"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="61"/>
       <c r="C44" s="59">
@@ -2806,15 +2806,15 @@
         <v>3.4806461444681496</v>
       </c>
       <c r="E44" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>216.57353787801819</v>
       </c>
       <c r="G44" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.2165735378780182</v>
       </c>
       <c r="H44" s="60"/>
@@ -2823,9 +2823,9 @@
       <c r="K44" s="58"/>
       <c r="M44" s="71"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
-      <c r="B45" s="96" t="str">
+      <c r="B45" s="75" t="str">
         <f>B33</f>
         <v>-Base beam and Tie beam</v>
       </c>
@@ -2840,10 +2840,10 @@
       <c r="K45" s="58"/>
       <c r="M45" s="71"/>
     </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="59">
         <f>3*5</f>
@@ -2858,11 +2858,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" ref="F46:F49" si="10">PRODUCT(C46:E46)</f>
+        <f t="shared" ref="F46:F49" si="12">PRODUCT(C46:E46)</f>
         <v>372.64158397959062</v>
       </c>
       <c r="G46" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.37264158397959063</v>
       </c>
       <c r="H46" s="60"/>
@@ -2871,7 +2871,7 @@
       <c r="K46" s="58"/>
       <c r="M46" s="71"/>
     </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
       <c r="B47" s="61"/>
       <c r="C47" s="59">
@@ -2887,11 +2887,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>41.92217819770395</v>
       </c>
       <c r="G47" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.1922178197703948E-2</v>
       </c>
       <c r="H47" s="60"/>
@@ -2900,10 +2900,10 @@
       <c r="K47" s="58"/>
       <c r="M47" s="71"/>
     </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="59">
         <f>5*5</f>
@@ -2918,11 +2918,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F48" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>247.80159617099571</v>
       </c>
       <c r="G48" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.2478015961709957</v>
       </c>
       <c r="H48" s="60"/>
@@ -2931,7 +2931,7 @@
       <c r="K48" s="58"/>
       <c r="M48" s="71"/>
     </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="57"/>
       <c r="B49" s="61"/>
       <c r="C49" s="59">
@@ -2947,11 +2947,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27.877679569237017</v>
       </c>
       <c r="G49" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.7877679569237018E-2</v>
       </c>
       <c r="H49" s="60"/>
@@ -2960,10 +2960,10 @@
       <c r="K49" s="58"/>
       <c r="M49" s="71"/>
     </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="57"/>
       <c r="B50" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C50" s="59">
         <f>C46</f>
@@ -2978,11 +2978,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F50" s="12">
-        <f t="shared" ref="F50" si="11">PRODUCT(C50:E50)</f>
+        <f t="shared" ref="F50" si="13">PRODUCT(C50:E50)</f>
         <v>22.755555555555553</v>
       </c>
       <c r="G50" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2755555555555553E-2</v>
       </c>
       <c r="H50" s="60"/>
@@ -2991,7 +2991,7 @@
       <c r="K50" s="58"/>
       <c r="M50" s="71"/>
     </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="57"/>
       <c r="B51" s="61"/>
       <c r="C51" s="59">
@@ -3007,11 +3007,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" ref="F51" si="12">PRODUCT(C51:E51)</f>
+        <f t="shared" ref="F51" si="14">PRODUCT(C51:E51)</f>
         <v>1.92</v>
       </c>
       <c r="G51" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9199999999999998E-3</v>
       </c>
       <c r="H51" s="60"/>
@@ -3020,10 +3020,10 @@
       <c r="K51" s="58"/>
       <c r="M51" s="71"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="57"/>
-      <c r="B52" s="96" t="s">
-        <v>61</v>
+      <c r="B52" s="75" t="s">
+        <v>59</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="12"/>
@@ -3036,10 +3036,10 @@
       <c r="K52" s="58"/>
       <c r="M52" s="71"/>
     </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="57"/>
       <c r="B53" s="61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="59">
         <f>15*4</f>
@@ -3054,11 +3054,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" ref="F53" si="13">PRODUCT(C53:E53)</f>
+        <f t="shared" ref="F53" si="15">PRODUCT(C53:E53)</f>
         <v>1109.2281440843462</v>
       </c>
       <c r="G53" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1092281440843463</v>
       </c>
       <c r="H53" s="60"/>
@@ -3070,7 +3070,7 @@
         <v>11.886619932947271</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="57"/>
       <c r="B54" s="61"/>
       <c r="C54" s="59">
@@ -3086,11 +3086,11 @@
         <v>2.4691358024691357</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" ref="F54:F58" si="14">PRODUCT(C54:E54)</f>
+        <f t="shared" ref="F54:F58" si="16">PRODUCT(C54:E54)</f>
         <v>1768.7245306873467</v>
       </c>
       <c r="G54" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.7687245306873467</v>
       </c>
       <c r="H54" s="60"/>
@@ -3099,10 +3099,10 @@
       <c r="K54" s="58"/>
       <c r="M54" s="71"/>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57"/>
       <c r="B55" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="59">
         <f>C53</f>
@@ -3117,11 +3117,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F55" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>91.022222222222211</v>
       </c>
       <c r="G55" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.1022222222222213E-2</v>
       </c>
       <c r="H55" s="60"/>
@@ -3130,7 +3130,7 @@
       <c r="K55" s="58"/>
       <c r="M55" s="71"/>
     </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="61"/>
       <c r="C56" s="59">
@@ -3146,11 +3146,11 @@
         <v>2.4691358024691357</v>
       </c>
       <c r="F56" s="12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>177.77777777777777</v>
       </c>
       <c r="G56" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.17777777777777778</v>
       </c>
       <c r="H56" s="60"/>
@@ -3159,10 +3159,10 @@
       <c r="K56" s="58"/>
       <c r="M56" s="71"/>
     </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="34">
         <f>15*(TRUNC((((34.333-1.17*4)/3.281)/0.1),0)+1)</f>
@@ -3177,17 +3177,19 @@
         <v>0.61728395061728392</v>
       </c>
       <c r="F57" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1068.3668314764018</v>
       </c>
       <c r="G57" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0683668314764019</v>
       </c>
       <c r="H57" s="38"/>
       <c r="I57" s="21"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="35"/>
       <c r="C58" s="34">
@@ -3203,20 +3205,22 @@
         <v>0.61728395061728392</v>
       </c>
       <c r="F58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>811.55714156704698</v>
       </c>
       <c r="G58" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.81155714156704695</v>
       </c>
       <c r="H58" s="38"/>
       <c r="I58" s="21"/>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
-      <c r="B59" s="96" t="s">
-        <v>68</v>
+      <c r="B59" s="75" t="s">
+        <v>66</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="12"/>
@@ -3229,10 +3233,10 @@
       <c r="K59" s="58"/>
       <c r="M59" s="71"/>
     </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="57"/>
       <c r="B60" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="12"/>
@@ -3245,7 +3249,7 @@
       <c r="K60" s="58"/>
       <c r="M60" s="71"/>
     </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="57"/>
       <c r="B61" s="61" t="str">
         <f>B46</f>
@@ -3264,11 +3268,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F61" s="12">
-        <f t="shared" ref="F61:F68" si="15">PRODUCT(C61:E61)</f>
+        <f t="shared" ref="F61:F68" si="17">PRODUCT(C61:E61)</f>
         <v>389.88067624670282</v>
       </c>
       <c r="G61" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.38988067624670281</v>
       </c>
       <c r="H61" s="60"/>
@@ -3277,7 +3281,7 @@
       <c r="K61" s="58"/>
       <c r="M61" s="71"/>
     </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="57"/>
       <c r="B62" s="61"/>
       <c r="C62" s="59">
@@ -3293,11 +3297,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F62" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>42.581576077754065</v>
       </c>
       <c r="G62" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2581576077754063E-2</v>
       </c>
       <c r="H62" s="60"/>
@@ -3306,10 +3310,10 @@
       <c r="K62" s="58"/>
       <c r="M62" s="71"/>
     </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="34">
         <f>3*(TRUNC((50/3.281-0.41*5-7*0.05)/0.125,0)+1)</f>
@@ -3324,17 +3328,19 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F63" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>149.04868660187159</v>
       </c>
       <c r="G63" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14904868660187159</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="21"/>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="57"/>
       <c r="B64" s="61" t="str">
         <f>B48</f>
@@ -3353,11 +3359,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F64" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>276.53341661618271</v>
       </c>
       <c r="G64" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27653341661618269</v>
       </c>
       <c r="H64" s="60"/>
@@ -3366,7 +3372,7 @@
       <c r="K64" s="58"/>
       <c r="M64" s="71"/>
     </row>
-    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="57"/>
       <c r="B65" s="61"/>
       <c r="C65" s="59">
@@ -3382,11 +3388,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F65" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>28.976676035987218</v>
       </c>
       <c r="G65" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8976676035987217E-2</v>
       </c>
       <c r="H65" s="60"/>
@@ -3395,10 +3401,10 @@
       <c r="K65" s="58"/>
       <c r="M65" s="71"/>
     </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C66" s="34">
         <f>5*(TRUNC((19/3.281-0.41*3-4*0.05)/0.125,0)+1)</f>
@@ -3413,20 +3419,22 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F66" s="36">
-        <f t="shared" ref="F66" si="16">PRODUCT(C66:E66)</f>
+        <f t="shared" ref="F66" si="18">PRODUCT(C66:E66)</f>
         <v>84.412686586820485</v>
       </c>
       <c r="G66" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.4412686586820482E-2</v>
       </c>
       <c r="H66" s="38"/>
       <c r="I66" s="21"/>
-    </row>
-    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C67" s="59">
         <f>C61</f>
@@ -3441,11 +3449,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F67" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>22.755555555555553</v>
       </c>
       <c r="G67" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2755555555555553E-2</v>
       </c>
       <c r="H67" s="60"/>
@@ -3454,7 +3462,7 @@
       <c r="K67" s="58"/>
       <c r="M67" s="71"/>
     </row>
-    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="61"/>
       <c r="C68" s="59">
@@ -3470,11 +3478,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F68" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.92</v>
       </c>
       <c r="G68" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9199999999999998E-3</v>
       </c>
       <c r="H68" s="60"/>
@@ -3483,10 +3491,10 @@
       <c r="K68" s="58"/>
       <c r="M68" s="71"/>
     </row>
-    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="57"/>
       <c r="B69" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="12"/>
@@ -3499,10 +3507,10 @@
       <c r="K69" s="58"/>
       <c r="M69" s="71"/>
     </row>
-    <row r="70" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="57"/>
       <c r="B70" s="61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <f>C61</f>
@@ -3517,11 +3525,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F70" s="12">
-        <f t="shared" ref="F70:F77" si="17">PRODUCT(C70:E70)</f>
+        <f t="shared" ref="F70:F77" si="19">PRODUCT(C70:E70)</f>
         <v>389.88067624670282</v>
       </c>
       <c r="G70" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.38988067624670281</v>
       </c>
       <c r="H70" s="60"/>
@@ -3530,7 +3538,7 @@
       <c r="K70" s="58"/>
       <c r="M70" s="71"/>
     </row>
-    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="57"/>
       <c r="B71" s="61"/>
       <c r="C71" s="59">
@@ -3546,11 +3554,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F71" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>42.581576077754065</v>
       </c>
       <c r="G71" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.2581576077754063E-2</v>
       </c>
       <c r="H71" s="60"/>
@@ -3559,10 +3567,10 @@
       <c r="K71" s="58"/>
       <c r="M71" s="71"/>
     </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="18"/>
       <c r="B72" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72" s="34">
         <f>3*(TRUNC((50/3.281-0.41*5-7*0.05)/0.125,0)+1)</f>
@@ -3577,17 +3585,19 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F72" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>149.04868660187159</v>
       </c>
       <c r="G72" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14904868660187159</v>
       </c>
       <c r="H72" s="38"/>
       <c r="I72" s="21"/>
-    </row>
-    <row r="73" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
       <c r="B73" s="61" t="str">
         <f>B64</f>
@@ -3606,11 +3616,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F73" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>276.53341661618271</v>
       </c>
       <c r="G73" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27653341661618269</v>
       </c>
       <c r="H73" s="60"/>
@@ -3619,7 +3629,7 @@
       <c r="K73" s="58"/>
       <c r="M73" s="71"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="57"/>
       <c r="B74" s="61"/>
       <c r="C74" s="59">
@@ -3635,11 +3645,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F74" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>28.976676035987218</v>
       </c>
       <c r="G74" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.8976676035987217E-2</v>
       </c>
       <c r="H74" s="60"/>
@@ -3648,10 +3658,10 @@
       <c r="K74" s="58"/>
       <c r="M74" s="71"/>
     </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C75" s="34">
         <f>5*(TRUNC((19/3.281-0.41*3-4*0.05)/0.125,0)+1)</f>
@@ -3666,20 +3676,22 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F75" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>84.412686586820485</v>
       </c>
       <c r="G75" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.4412686586820482E-2</v>
       </c>
       <c r="H75" s="38"/>
       <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C76" s="59">
         <f>C70</f>
@@ -3694,11 +3706,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F76" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>22.755555555555553</v>
       </c>
       <c r="G76" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2755555555555553E-2</v>
       </c>
       <c r="H76" s="60"/>
@@ -3707,7 +3719,7 @@
       <c r="K76" s="58"/>
       <c r="M76" s="71"/>
     </row>
-    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="61"/>
       <c r="C77" s="59">
@@ -3723,11 +3735,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F77" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.92</v>
       </c>
       <c r="G77" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9199999999999998E-3</v>
       </c>
       <c r="H77" s="60"/>
@@ -3736,10 +3748,10 @@
       <c r="K77" s="58"/>
       <c r="M77" s="71"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="57"/>
       <c r="B78" s="61" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C78" s="59"/>
       <c r="D78" s="12"/>
@@ -3752,7 +3764,7 @@
       <c r="K78" s="58"/>
       <c r="M78" s="71"/>
     </row>
-    <row r="79" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="57"/>
       <c r="B79" s="61" t="str">
         <f>B70</f>
@@ -3771,11 +3783,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F79" s="12">
-        <f t="shared" ref="F79:F84" si="18">PRODUCT(C79:E79)</f>
+        <f t="shared" ref="F79:F84" si="20">PRODUCT(C79:E79)</f>
         <v>117.75647442627023</v>
       </c>
       <c r="G79" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.11775647442627023</v>
       </c>
       <c r="H79" s="60"/>
@@ -3784,7 +3796,7 @@
       <c r="K79" s="58"/>
       <c r="M79" s="71"/>
     </row>
-    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="57"/>
       <c r="B80" s="61"/>
       <c r="C80" s="59">
@@ -3800,11 +3812,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F80" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11.967603372955399</v>
       </c>
       <c r="G80" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1967603372955398E-2</v>
       </c>
       <c r="H80" s="60"/>
@@ -3813,10 +3825,10 @@
       <c r="K80" s="58"/>
       <c r="M80" s="71"/>
     </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C81" s="34">
         <f>3*(TRUNC((10/3.281)/0.125,0)+1)</f>
@@ -3831,20 +3843,22 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F81" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>36.176865680065923</v>
       </c>
       <c r="G81" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.6176865680065923E-2</v>
       </c>
       <c r="H81" s="38"/>
       <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="57"/>
       <c r="B82" s="61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C82" s="59">
         <f>2*5</f>
@@ -3859,11 +3873,11 @@
         <v>1.5802469135802468</v>
       </c>
       <c r="F82" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>110.61336664647308</v>
       </c>
       <c r="G82" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.11061336664647309</v>
       </c>
       <c r="H82" s="60"/>
@@ -3872,7 +3886,7 @@
       <c r="K82" s="58"/>
       <c r="M82" s="71"/>
     </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57"/>
       <c r="B83" s="61"/>
       <c r="C83" s="59">
@@ -3888,11 +3902,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="F83" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11.590670414394888</v>
       </c>
       <c r="G83" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1590670414394887E-2</v>
       </c>
       <c r="H83" s="60"/>
@@ -3901,10 +3915,10 @@
       <c r="K83" s="58"/>
       <c r="M83" s="71"/>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C84" s="34">
         <f>2*(TRUNC((19/3.281-0.41*3-4*0.05)/0.125,0)+1)</f>
@@ -3919,20 +3933,22 @@
         <v>0.39506172839506171</v>
       </c>
       <c r="F84" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33.765074634728194</v>
       </c>
       <c r="G84" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3765074634728193E-2</v>
       </c>
       <c r="H84" s="38"/>
       <c r="I84" s="21"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
-      <c r="B85" s="96" t="s">
-        <v>77</v>
+      <c r="B85" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="C85" s="34"/>
       <c r="D85" s="36"/>
@@ -3941,8 +3957,10 @@
       <c r="G85" s="37"/>
       <c r="H85" s="38"/>
       <c r="I85" s="21"/>
-    </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+    </row>
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="61" t="str">
         <f>B124</f>
@@ -3957,21 +3975,23 @@
         <v>16.458396830234683</v>
       </c>
       <c r="E86" s="36">
-        <f>8*8/162</f>
+        <f t="shared" ref="E86:E91" si="21">8*8/162</f>
         <v>0.39506172839506171</v>
       </c>
       <c r="F86" s="36">
-        <f t="shared" ref="F86" si="19">PRODUCT(C86:E86)</f>
+        <f t="shared" ref="F86" si="22">PRODUCT(C86:E86)</f>
         <v>1261.4040434826779</v>
       </c>
       <c r="G86" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2614040434826779</v>
       </c>
       <c r="H86" s="38"/>
       <c r="I86" s="21"/>
-    </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="61"/>
       <c r="C87" s="41">
@@ -3983,21 +4003,23 @@
         <v>7.0100579091740318</v>
       </c>
       <c r="E87" s="36">
-        <f>8*8/162</f>
+        <f t="shared" si="21"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F87" s="36">
-        <f t="shared" ref="F87:F88" si="20">PRODUCT(C87:E87)</f>
+        <f t="shared" ref="F87:F88" si="23">PRODUCT(C87:E87)</f>
         <v>216.01363631232573</v>
       </c>
       <c r="G87" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21601363631232573</v>
       </c>
       <c r="H87" s="38"/>
       <c r="I87" s="21"/>
-    </row>
-    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+    </row>
+    <row r="88" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="61" t="str">
         <f>B125</f>
@@ -4012,21 +4034,23 @@
         <v>16.458396830234683</v>
       </c>
       <c r="E88" s="36">
-        <f>8*8/162</f>
+        <f t="shared" si="21"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F88" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1261.4040434826779</v>
       </c>
       <c r="G88" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2614040434826779</v>
       </c>
       <c r="H88" s="38"/>
       <c r="I88" s="21"/>
-    </row>
-    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+    </row>
+    <row r="89" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="61"/>
       <c r="C89" s="41">
@@ -4038,21 +4062,23 @@
         <v>7.0100579091740318</v>
       </c>
       <c r="E89" s="36">
-        <f>8*8/162</f>
+        <f t="shared" si="21"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F89" s="36">
-        <f t="shared" ref="F89:F90" si="21">PRODUCT(C89:E89)</f>
+        <f t="shared" ref="F89:F90" si="24">PRODUCT(C89:E89)</f>
         <v>216.01363631232573</v>
       </c>
       <c r="G89" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21601363631232573</v>
       </c>
       <c r="H89" s="38"/>
       <c r="I89" s="21"/>
-    </row>
-    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+    </row>
+    <row r="90" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="61" t="str">
         <f>B126</f>
@@ -4067,21 +4093,23 @@
         <v>16.458396830234683</v>
       </c>
       <c r="E90" s="36">
-        <f>8*8/162</f>
+        <f t="shared" si="21"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F90" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>364.11663110840186</v>
       </c>
       <c r="G90" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.36411663110840187</v>
       </c>
       <c r="H90" s="38"/>
       <c r="I90" s="21"/>
-    </row>
-    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+    </row>
+    <row r="91" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="61"/>
       <c r="C91" s="41">
@@ -4093,21 +4121,23 @@
         <v>7.0100579091740318</v>
       </c>
       <c r="E91" s="36">
-        <f>8*8/162</f>
+        <f t="shared" si="21"/>
         <v>0.39506172839506171</v>
       </c>
       <c r="F91" s="36">
-        <f t="shared" ref="F91" si="22">PRODUCT(C91:E91)</f>
+        <f t="shared" ref="F91" si="25">PRODUCT(C91:E91)</f>
         <v>216.01363631232573</v>
       </c>
       <c r="G91" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21601363631232573</v>
       </c>
       <c r="H91" s="38"/>
       <c r="I91" s="21"/>
-    </row>
-    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+    </row>
+    <row r="92" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="35" t="s">
         <v>33</v>
@@ -4132,7 +4162,7 @@
       </c>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="29"/>
       <c r="C93" s="19"/>
@@ -4145,12 +4175,12 @@
       <c r="J93" s="32"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <v>5</v>
       </c>
-      <c r="B94" s="93" t="s">
-        <v>51</v>
+      <c r="B94" s="72" t="s">
+        <v>49</v>
       </c>
       <c r="C94" s="19"/>
       <c r="D94" s="20"/>
@@ -4162,9 +4192,9 @@
       <c r="J94" s="32"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
-      <c r="B95" s="96" t="str">
+      <c r="B95" s="75" t="str">
         <f>B40</f>
         <v>-footing</v>
       </c>
@@ -4178,22 +4208,22 @@
       <c r="J95" s="32"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="57"/>
       <c r="B96" s="61" t="str">
         <f>B21</f>
         <v>-F1</v>
       </c>
-      <c r="C96" s="95">
+      <c r="C96" s="74">
         <f>C21*4</f>
         <v>20</v>
       </c>
-      <c r="D96" s="94">
+      <c r="D96" s="73">
         <f>D21</f>
         <v>1.8287107589149649</v>
       </c>
-      <c r="E96" s="94"/>
-      <c r="F96" s="94">
+      <c r="E96" s="73"/>
+      <c r="F96" s="73">
         <f>0.6</f>
         <v>0.6</v>
       </c>
@@ -4207,22 +4237,22 @@
       <c r="K96" s="58"/>
       <c r="M96" s="71"/>
     </row>
-    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="57"/>
       <c r="B97" s="61" t="str">
         <f>B22</f>
         <v>-CF1</v>
       </c>
-      <c r="C97" s="95">
+      <c r="C97" s="74">
         <f>C22*2</f>
         <v>10</v>
       </c>
-      <c r="D97" s="94">
+      <c r="D97" s="73">
         <f>D22</f>
         <v>2.1334958854007922</v>
       </c>
-      <c r="E97" s="94"/>
-      <c r="F97" s="94">
+      <c r="E97" s="73"/>
+      <c r="F97" s="73">
         <v>0.6</v>
       </c>
       <c r="G97" s="62">
@@ -4235,19 +4265,19 @@
       <c r="K97" s="58"/>
       <c r="M97" s="71"/>
     </row>
-    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="57"/>
       <c r="B98" s="61"/>
-      <c r="C98" s="95">
+      <c r="C98" s="74">
         <f>C22*2</f>
         <v>10</v>
       </c>
-      <c r="D98" s="94">
+      <c r="D98" s="73">
         <f>E22</f>
         <v>3.4806461444681496</v>
       </c>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94">
+      <c r="E98" s="73"/>
+      <c r="F98" s="73">
         <v>0.6</v>
       </c>
       <c r="G98" s="62">
@@ -4260,16 +4290,16 @@
       <c r="K98" s="58"/>
       <c r="M98" s="71"/>
     </row>
-    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="57"/>
-      <c r="B99" s="96" t="str">
+      <c r="B99" s="75" t="str">
         <f>B45</f>
         <v>-Base beam and Tie beam</v>
       </c>
-      <c r="C99" s="95"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
       <c r="G99" s="62"/>
       <c r="H99" s="60"/>
       <c r="I99" s="60"/>
@@ -4277,7 +4307,7 @@
       <c r="K99" s="58"/>
       <c r="M99" s="71"/>
     </row>
-    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="57"/>
       <c r="B100" s="61" t="str">
         <f>B34</f>
@@ -4306,7 +4336,7 @@
       <c r="K100" s="58"/>
       <c r="M100" s="71"/>
     </row>
-    <row r="101" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="57"/>
       <c r="B101" s="61" t="str">
         <f>B35</f>
@@ -4326,7 +4356,7 @@
         <v>0.7111652951335975</v>
       </c>
       <c r="G101" s="62">
-        <f t="shared" ref="G101:G103" si="23">PRODUCT(C101:F101)</f>
+        <f t="shared" ref="G101:G103" si="26">PRODUCT(C101:F101)</f>
         <v>44.555665366553576</v>
       </c>
       <c r="H101" s="60"/>
@@ -4335,7 +4365,7 @@
       <c r="K101" s="58"/>
       <c r="M101" s="71"/>
     </row>
-    <row r="102" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="57"/>
       <c r="B102" s="61" t="str">
         <f>B36</f>
@@ -4355,7 +4385,7 @@
         <v>0.7111652951335975</v>
       </c>
       <c r="G102" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>26.552194042628983</v>
       </c>
       <c r="H102" s="60"/>
@@ -4364,10 +4394,10 @@
       <c r="K102" s="58"/>
       <c r="M102" s="71"/>
     </row>
-    <row r="103" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="57"/>
       <c r="B103" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C103" s="59">
         <f>2*5</f>
@@ -4383,7 +4413,7 @@
         <v>0.7111652951335975</v>
       </c>
       <c r="G103" s="62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7.0444596439627913</v>
       </c>
       <c r="H103" s="60"/>
@@ -4392,9 +4422,9 @@
       <c r="K103" s="58"/>
       <c r="M103" s="71"/>
     </row>
-    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="57"/>
-      <c r="B104" s="96" t="str">
+      <c r="B104" s="75" t="str">
         <f>B52</f>
         <v>-Column</v>
       </c>
@@ -4409,10 +4439,10 @@
       <c r="K104" s="58"/>
       <c r="M104" s="71"/>
     </row>
-    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="57"/>
       <c r="B105" s="61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C105" s="59">
         <f>15</f>
@@ -4437,17 +4467,17 @@
       <c r="K105" s="58"/>
       <c r="M105" s="71"/>
     </row>
-    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="57"/>
       <c r="B106" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C106" s="59">
         <f>15</f>
         <v>15</v>
       </c>
       <c r="D106" s="12">
-        <f t="shared" ref="D106:D107" si="24">(14/12/3.281)*4</f>
+        <f t="shared" ref="D106:D107" si="27">(14/12/3.281)*4</f>
         <v>1.422330590267195</v>
       </c>
       <c r="E106" s="12"/>
@@ -4456,7 +4486,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G106" s="62">
-        <f t="shared" ref="G106:G107" si="25">PRODUCT(C106:F106)</f>
+        <f t="shared" ref="G106:G107" si="28">PRODUCT(C106:F106)</f>
         <v>57.983489210968806</v>
       </c>
       <c r="H106" s="60"/>
@@ -4465,16 +4495,16 @@
       <c r="K106" s="58"/>
       <c r="M106" s="71"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="57"/>
       <c r="B107" s="61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C107" s="59">
         <v>6</v>
       </c>
       <c r="D107" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.422330590267195</v>
       </c>
       <c r="E107" s="12"/>
@@ -4483,7 +4513,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G107" s="62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>23.193395684387522</v>
       </c>
       <c r="H107" s="60"/>
@@ -4492,9 +4522,9 @@
       <c r="K107" s="58"/>
       <c r="M107" s="71"/>
     </row>
-    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="57"/>
-      <c r="B108" s="96" t="str">
+      <c r="B108" s="75" t="str">
         <f>B59</f>
         <v>-Beam</v>
       </c>
@@ -4509,7 +4539,7 @@
       <c r="K108" s="58"/>
       <c r="M108" s="71"/>
     </row>
-    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="57"/>
       <c r="B109" s="61" t="str">
         <f>B60</f>
@@ -4526,7 +4556,7 @@
       <c r="K109" s="58"/>
       <c r="M109" s="71"/>
     </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="57"/>
       <c r="B110" s="61" t="str">
         <f>B100</f>
@@ -4555,10 +4585,10 @@
       <c r="K110" s="58"/>
       <c r="M110" s="71"/>
     </row>
-    <row r="111" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="57"/>
       <c r="B111" s="61" t="str">
-        <f t="shared" ref="B111:B113" si="26">B101</f>
+        <f t="shared" ref="B111:B113" si="29">B101</f>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C111" s="59">
@@ -4566,16 +4596,16 @@
         <v>9</v>
       </c>
       <c r="D111" s="12">
-        <f t="shared" ref="D111:D113" si="27">D101</f>
+        <f t="shared" ref="D111:D113" si="30">D101</f>
         <v>3.4806461444681496</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12">
-        <f t="shared" ref="F111:F113" si="28">2*9/12/3.281</f>
+        <f t="shared" ref="F111:F113" si="31">2*9/12/3.281</f>
         <v>0.45717768972874123</v>
       </c>
       <c r="G111" s="62">
-        <f t="shared" ref="G111:G113" si="29">PRODUCT(C111:F111)</f>
+        <f t="shared" ref="G111:G113" si="32">PRODUCT(C111:F111)</f>
         <v>14.321463867820793</v>
       </c>
       <c r="H111" s="60"/>
@@ -4584,10 +4614,10 @@
       <c r="K111" s="58"/>
       <c r="M111" s="71"/>
     </row>
-    <row r="112" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="57"/>
       <c r="B112" s="61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C112" s="59">
@@ -4595,16 +4625,16 @@
         <v>5</v>
       </c>
       <c r="D112" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.45717768972874123</v>
       </c>
       <c r="G112" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8.5346337994164578</v>
       </c>
       <c r="H112" s="60"/>
@@ -4613,10 +4643,10 @@
       <c r="K112" s="58"/>
       <c r="M112" s="71"/>
     </row>
-    <row r="113" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="57"/>
       <c r="B113" s="61" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">-Grid 1(B-C), 2(B-C), 3(B-C), 4(B-C), 5(B-C), </v>
       </c>
       <c r="C113" s="59">
@@ -4624,16 +4654,16 @@
         <v>5</v>
       </c>
       <c r="D113" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.45717768972874123</v>
       </c>
       <c r="G113" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.2642905998451828</v>
       </c>
       <c r="H113" s="60"/>
@@ -4642,7 +4672,7 @@
       <c r="K113" s="58"/>
       <c r="M113" s="71"/>
     </row>
-    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="57"/>
       <c r="B114" s="61" t="str">
         <f>B69</f>
@@ -4659,18 +4689,18 @@
       <c r="K114" s="58"/>
       <c r="M114" s="71"/>
     </row>
-    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="57"/>
       <c r="B115" s="61" t="str">
-        <f>B110</f>
+        <f t="shared" ref="B115:D118" si="33">B110</f>
         <v>-Grid A(1-2), B(1-2), C(1-2)</v>
       </c>
       <c r="C115" s="59">
-        <f>C110</f>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="D115" s="12">
-        <f>D110</f>
+        <f t="shared" si="33"/>
         <v>3.047851264858275</v>
       </c>
       <c r="E115" s="12"/>
@@ -4688,27 +4718,27 @@
       <c r="K115" s="58"/>
       <c r="M115" s="71"/>
     </row>
-    <row r="116" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="57"/>
       <c r="B116" s="61" t="str">
-        <f>B111</f>
+        <f t="shared" si="33"/>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C116" s="59">
-        <f>C111</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="D116" s="12">
-        <f>D111</f>
+        <f t="shared" si="33"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12">
-        <f t="shared" ref="F116:F118" si="30">2*9/12/3.281</f>
+        <f t="shared" ref="F116:F118" si="34">2*9/12/3.281</f>
         <v>0.45717768972874123</v>
       </c>
       <c r="G116" s="62">
-        <f t="shared" ref="G116:G118" si="31">PRODUCT(C116:F116)</f>
+        <f t="shared" ref="G116:G118" si="35">PRODUCT(C116:F116)</f>
         <v>14.321463867820793</v>
       </c>
       <c r="H116" s="60"/>
@@ -4717,27 +4747,27 @@
       <c r="K116" s="58"/>
       <c r="M116" s="71"/>
     </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="57"/>
       <c r="B117" s="61" t="str">
-        <f>B112</f>
+        <f t="shared" si="33"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C117" s="59">
-        <f>C112</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="D117" s="12">
-        <f>D112</f>
+        <f t="shared" si="33"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.45717768972874123</v>
       </c>
       <c r="G117" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>8.5346337994164578</v>
       </c>
       <c r="H117" s="60"/>
@@ -4746,27 +4776,27 @@
       <c r="K117" s="58"/>
       <c r="M117" s="71"/>
     </row>
-    <row r="118" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="57"/>
       <c r="B118" s="61" t="str">
-        <f>B113</f>
+        <f t="shared" si="33"/>
         <v xml:space="preserve">-Grid 1(B-C), 2(B-C), 3(B-C), 4(B-C), 5(B-C), </v>
       </c>
       <c r="C118" s="59">
-        <f>C113</f>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="D118" s="12">
-        <f>D113</f>
+        <f t="shared" si="33"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0.45717768972874123</v>
       </c>
       <c r="G118" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2.2642905998451828</v>
       </c>
       <c r="H118" s="60"/>
@@ -4775,7 +4805,7 @@
       <c r="K118" s="58"/>
       <c r="M118" s="71"/>
     </row>
-    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="57"/>
       <c r="B119" s="61" t="str">
         <f>B78</f>
@@ -4792,7 +4822,7 @@
       <c r="K119" s="58"/>
       <c r="M119" s="71"/>
     </row>
-    <row r="120" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="57"/>
       <c r="B120" s="61" t="str">
         <f>B79</f>
@@ -4821,10 +4851,10 @@
       <c r="K120" s="58"/>
       <c r="M120" s="71"/>
     </row>
-    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="57"/>
       <c r="B121" s="61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C121" s="59">
         <v>2</v>
@@ -4835,11 +4865,11 @@
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12">
-        <f t="shared" ref="F121:F122" si="32">2*9/12/3.281</f>
+        <f t="shared" ref="F121:F122" si="36">2*9/12/3.281</f>
         <v>0.45717768972874123</v>
       </c>
       <c r="G121" s="62">
-        <f t="shared" ref="G121" si="33">PRODUCT(C121:F121)</f>
+        <f t="shared" ref="G121" si="37">PRODUCT(C121:F121)</f>
         <v>3.4138535197665831</v>
       </c>
       <c r="H121" s="60"/>
@@ -4848,10 +4878,10 @@
       <c r="K121" s="58"/>
       <c r="M121" s="71"/>
     </row>
-    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="57"/>
       <c r="B122" s="61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C122" s="59">
         <v>2</v>
@@ -4862,11 +4892,11 @@
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0.45717768972874123</v>
       </c>
       <c r="G122" s="62">
-        <f t="shared" ref="G122:G126" si="34">PRODUCT(C122:F122)</f>
+        <f t="shared" ref="G122:G126" si="38">PRODUCT(C122:F122)</f>
         <v>0.90571623993807315</v>
       </c>
       <c r="H122" s="60"/>
@@ -4875,10 +4905,10 @@
       <c r="K122" s="58"/>
       <c r="M122" s="71"/>
     </row>
-    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="57"/>
-      <c r="B123" s="96" t="s">
-        <v>76</v>
+      <c r="B123" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="C123" s="59"/>
       <c r="D123" s="12"/>
@@ -4891,7 +4921,7 @@
       <c r="K123" s="58"/>
       <c r="M123" s="71"/>
     </row>
-    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="57"/>
       <c r="B124" s="61" t="str">
         <f>B109</f>
@@ -4911,7 +4941,7 @@
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>115.37431487211146</v>
       </c>
       <c r="H124" s="60"/>
@@ -4920,27 +4950,27 @@
       <c r="K124" s="58"/>
       <c r="M124" s="71"/>
     </row>
-    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="57"/>
       <c r="B125" s="61" t="str">
         <f>B114</f>
         <v>-First floor</v>
       </c>
       <c r="C125" s="59">
-        <f t="shared" ref="C125:E125" si="35">C159</f>
+        <f t="shared" ref="C125:E125" si="39">C159</f>
         <v>1</v>
       </c>
       <c r="D125" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>16.458396830234683</v>
       </c>
       <c r="E125" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>115.37431487211146</v>
       </c>
       <c r="H125" s="60"/>
@@ -4949,27 +4979,27 @@
       <c r="K125" s="58"/>
       <c r="M125" s="71"/>
     </row>
-    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="57"/>
       <c r="B126" s="61" t="str">
         <f>B119</f>
         <v>-Second floor</v>
       </c>
       <c r="C126" s="59">
-        <f t="shared" ref="C126:E126" si="36">C160</f>
+        <f t="shared" ref="C126:E126" si="40">C160</f>
         <v>1</v>
       </c>
       <c r="D126" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4.97805547089302</v>
       </c>
       <c r="E126" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="62">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>34.896457126040673</v>
       </c>
       <c r="H126" s="60"/>
@@ -4978,7 +5008,7 @@
       <c r="K126" s="58"/>
       <c r="M126" s="71"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="35" t="s">
         <v>33</v>
@@ -5003,7 +5033,7 @@
       </c>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="29"/>
       <c r="C128" s="19"/>
@@ -5016,12 +5046,12 @@
       <c r="J128" s="32"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <v>6</v>
       </c>
-      <c r="B129" s="93" t="s">
-        <v>52</v>
+      <c r="B129" s="72" t="s">
+        <v>50</v>
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="20"/>
@@ -5033,9 +5063,9 @@
       <c r="J129" s="32"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
-      <c r="B130" s="96" t="str">
+      <c r="B130" s="75" t="str">
         <f>B95</f>
         <v>-footing</v>
       </c>
@@ -5049,22 +5079,22 @@
       <c r="J130" s="32"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="57"/>
       <c r="B131" s="61" t="str">
-        <f>B21</f>
+        <f t="shared" ref="B131:E132" si="41">B21</f>
         <v>-F1</v>
       </c>
       <c r="C131" s="59">
-        <f>C21</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="D131" s="12">
-        <f>D21</f>
+        <f t="shared" si="41"/>
         <v>1.8287107589149649</v>
       </c>
       <c r="E131" s="12">
-        <f>E21</f>
+        <f t="shared" si="41"/>
         <v>1.8287107589149649</v>
       </c>
       <c r="F131" s="12">
@@ -5080,22 +5110,22 @@
       <c r="K131" s="58"/>
       <c r="M131" s="71"/>
     </row>
-    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="57"/>
       <c r="B132" s="61" t="str">
-        <f>B22</f>
+        <f t="shared" si="41"/>
         <v>-CF1</v>
       </c>
       <c r="C132" s="59">
-        <f>C22</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
       <c r="D132" s="12">
-        <f>D22</f>
+        <f t="shared" si="41"/>
         <v>2.1334958854007922</v>
       </c>
       <c r="E132" s="12">
-        <f>E22</f>
+        <f t="shared" si="41"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="F132" s="12">
@@ -5111,10 +5141,10 @@
       <c r="K132" s="58"/>
       <c r="M132" s="71"/>
     </row>
-    <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="57"/>
-      <c r="B133" s="96" t="str">
-        <f>B99</f>
+      <c r="B133" s="75" t="str">
+        <f t="shared" ref="B133:B156" si="42">B99</f>
         <v>-Base beam and Tie beam</v>
       </c>
       <c r="C133" s="59"/>
@@ -5128,18 +5158,18 @@
       <c r="K133" s="58"/>
       <c r="M133" s="71"/>
     </row>
-    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="57"/>
       <c r="B134" s="61" t="str">
-        <f>B100</f>
+        <f t="shared" si="42"/>
         <v>-Grid A(1-2), B(1-2), C(1-2)</v>
       </c>
       <c r="C134" s="59">
-        <f>C100</f>
+        <f t="shared" ref="C134:D137" si="43">C100</f>
         <v>6</v>
       </c>
       <c r="D134" s="12">
-        <f>D100</f>
+        <f t="shared" si="43"/>
         <v>3.047851264858275</v>
       </c>
       <c r="E134" s="12">
@@ -5159,18 +5189,18 @@
       <c r="K134" s="58"/>
       <c r="M134" s="71"/>
     </row>
-    <row r="135" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="57"/>
       <c r="B135" s="61" t="str">
-        <f>B101</f>
+        <f t="shared" si="42"/>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C135" s="59">
-        <f>C101</f>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="D135" s="12">
-        <f>D101</f>
+        <f t="shared" si="43"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="E135" s="12">
@@ -5181,7 +5211,7 @@
         <v>0.7111652951335975</v>
       </c>
       <c r="G135" s="62">
-        <f t="shared" ref="G135:G137" si="37">PRODUCT(C135:F135)</f>
+        <f t="shared" ref="G135:G137" si="44">PRODUCT(C135:F135)</f>
         <v>10.247803034307323</v>
       </c>
       <c r="H135" s="60"/>
@@ -5190,18 +5220,18 @@
       <c r="K135" s="58"/>
       <c r="M135" s="71"/>
     </row>
-    <row r="136" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="57"/>
       <c r="B136" s="61" t="str">
-        <f>B102</f>
+        <f t="shared" si="42"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C136" s="59">
-        <f>C102</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="D136" s="12">
-        <f>D102</f>
+        <f t="shared" si="43"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E136" s="12">
@@ -5212,7 +5242,7 @@
         <v>0.7111652951335975</v>
       </c>
       <c r="G136" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>6.1070046298046661</v>
       </c>
       <c r="H136" s="60"/>
@@ -5221,18 +5251,18 @@
       <c r="K136" s="58"/>
       <c r="M136" s="71"/>
     </row>
-    <row r="137" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="57"/>
       <c r="B137" s="61" t="str">
-        <f>B103</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">-Grid 1(B-C), 2(B-C), 3(B-C), 4(B-C), 5(B-C), </v>
       </c>
       <c r="C137" s="59">
-        <f>C103</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="D137" s="12">
-        <f>D103</f>
+        <f t="shared" si="43"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E137" s="12">
@@ -5243,7 +5273,7 @@
         <v>0.7111652951335975</v>
       </c>
       <c r="G137" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1.6202257181114421</v>
       </c>
       <c r="H137" s="60"/>
@@ -5252,10 +5282,10 @@
       <c r="K137" s="58"/>
       <c r="M137" s="71"/>
     </row>
-    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="57"/>
-      <c r="B138" s="96" t="str">
-        <f>B104</f>
+      <c r="B138" s="75" t="str">
+        <f t="shared" si="42"/>
         <v>-Column</v>
       </c>
       <c r="C138" s="59"/>
@@ -5269,10 +5299,10 @@
       <c r="K138" s="58"/>
       <c r="M138" s="71"/>
     </row>
-    <row r="139" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="57"/>
       <c r="B139" s="61" t="str">
-        <f>B105</f>
+        <f t="shared" si="42"/>
         <v>-GF column</v>
       </c>
       <c r="C139" s="59">
@@ -5301,10 +5331,10 @@
       <c r="K139" s="58"/>
       <c r="M139" s="71"/>
     </row>
-    <row r="140" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="57"/>
       <c r="B140" s="61" t="str">
-        <f>B106</f>
+        <f t="shared" si="42"/>
         <v>-FF column</v>
       </c>
       <c r="C140" s="59">
@@ -5312,11 +5342,11 @@
         <v>15</v>
       </c>
       <c r="D140" s="12">
-        <f t="shared" ref="D140:E141" si="38">14/12/3.281</f>
+        <f t="shared" ref="D140:E141" si="45">14/12/3.281</f>
         <v>0.35558264756679875</v>
       </c>
       <c r="E140" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.35558264756679875</v>
       </c>
       <c r="F140" s="12">
@@ -5333,10 +5363,10 @@
       <c r="K140" s="58"/>
       <c r="M140" s="71"/>
     </row>
-    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="57"/>
       <c r="B141" s="61" t="str">
-        <f>B107</f>
+        <f t="shared" si="42"/>
         <v>-SF column</v>
       </c>
       <c r="C141" s="59">
@@ -5344,11 +5374,11 @@
         <v>6</v>
       </c>
       <c r="D141" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.35558264756679875</v>
       </c>
       <c r="E141" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>0.35558264756679875</v>
       </c>
       <c r="F141" s="12">
@@ -5356,7 +5386,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G141" s="62">
-        <f t="shared" ref="G141" si="39">PRODUCT(C141:F141)</f>
+        <f t="shared" ref="G141" si="46">PRODUCT(C141:F141)</f>
         <v>2.0617922608797201</v>
       </c>
       <c r="H141" s="60"/>
@@ -5365,10 +5395,10 @@
       <c r="K141" s="58"/>
       <c r="M141" s="71"/>
     </row>
-    <row r="142" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="57"/>
-      <c r="B142" s="96" t="str">
-        <f>B108</f>
+      <c r="B142" s="75" t="str">
+        <f t="shared" si="42"/>
         <v>-Beam</v>
       </c>
       <c r="C142" s="59"/>
@@ -5382,10 +5412,10 @@
       <c r="K142" s="58"/>
       <c r="M142" s="71"/>
     </row>
-    <row r="143" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="57"/>
       <c r="B143" s="61" t="str">
-        <f>B109</f>
+        <f t="shared" si="42"/>
         <v>-Ground floor</v>
       </c>
       <c r="C143" s="59"/>
@@ -5399,18 +5429,18 @@
       <c r="K143" s="58"/>
       <c r="M143" s="71"/>
     </row>
-    <row r="144" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="57"/>
       <c r="B144" s="61" t="str">
-        <f>B110</f>
+        <f t="shared" si="42"/>
         <v>-Grid A(1-2), B(1-2), C(1-2)</v>
       </c>
       <c r="C144" s="59">
-        <f>C110</f>
+        <f t="shared" ref="C144:D147" si="47">C110</f>
         <v>3</v>
       </c>
       <c r="D144" s="12">
-        <f>D110</f>
+        <f t="shared" si="47"/>
         <v>3.047851264858275</v>
       </c>
       <c r="E144" s="12">
@@ -5420,7 +5450,7 @@
         <v>0.23</v>
       </c>
       <c r="G144" s="62">
-        <f t="shared" ref="G144" si="40">PRODUCT(C144:F144)</f>
+        <f t="shared" ref="G144" si="48">PRODUCT(C144:F144)</f>
         <v>0.48369399573300831</v>
       </c>
       <c r="H144" s="60"/>
@@ -5429,18 +5459,18 @@
       <c r="K144" s="58"/>
       <c r="M144" s="71"/>
     </row>
-    <row r="145" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="57"/>
       <c r="B145" s="61" t="str">
-        <f>B111</f>
+        <f t="shared" si="42"/>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C145" s="59">
-        <f>C111</f>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="D145" s="12">
-        <f>D111</f>
+        <f t="shared" si="47"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="E145" s="12">
@@ -5450,7 +5480,7 @@
         <v>0.23</v>
       </c>
       <c r="G145" s="62">
-        <f t="shared" ref="G145:G158" si="41">PRODUCT(C145:F145)</f>
+        <f t="shared" ref="G145:G158" si="49">PRODUCT(C145:F145)</f>
         <v>1.657135629381286</v>
       </c>
       <c r="H145" s="60"/>
@@ -5459,18 +5489,18 @@
       <c r="K145" s="58"/>
       <c r="M145" s="71"/>
     </row>
-    <row r="146" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="57"/>
       <c r="B146" s="61" t="str">
-        <f>B112</f>
+        <f t="shared" si="42"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C146" s="59">
-        <f>C112</f>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="D146" s="12">
-        <f>D112</f>
+        <f t="shared" si="47"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E146" s="12">
@@ -5480,7 +5510,7 @@
         <v>0.23</v>
       </c>
       <c r="G146" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.98754190795489183</v>
       </c>
       <c r="H146" s="60"/>
@@ -5489,18 +5519,18 @@
       <c r="K146" s="58"/>
       <c r="M146" s="71"/>
     </row>
-    <row r="147" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="57"/>
       <c r="B147" s="61" t="str">
-        <f>B113</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">-Grid 1(B-C), 2(B-C), 3(B-C), 4(B-C), 5(B-C), </v>
       </c>
       <c r="C147" s="59">
-        <f>C113</f>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="D147" s="12">
-        <f>D113</f>
+        <f t="shared" si="47"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E147" s="12">
@@ -5510,7 +5540,7 @@
         <v>0.23</v>
       </c>
       <c r="G147" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.26200091435537948</v>
       </c>
       <c r="H147" s="60"/>
@@ -5519,10 +5549,10 @@
       <c r="K147" s="58"/>
       <c r="M147" s="71"/>
     </row>
-    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="57"/>
       <c r="B148" s="61" t="str">
-        <f>B114</f>
+        <f t="shared" si="42"/>
         <v>-First floor</v>
       </c>
       <c r="C148" s="59"/>
@@ -5536,18 +5566,18 @@
       <c r="K148" s="58"/>
       <c r="M148" s="71"/>
     </row>
-    <row r="149" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="57"/>
       <c r="B149" s="61" t="str">
-        <f>B115</f>
+        <f t="shared" si="42"/>
         <v>-Grid A(1-2), B(1-2), C(1-2)</v>
       </c>
       <c r="C149" s="59">
-        <f>C115</f>
+        <f t="shared" ref="C149:D152" si="50">C115</f>
         <v>3</v>
       </c>
       <c r="D149" s="12">
-        <f>D115</f>
+        <f t="shared" si="50"/>
         <v>3.047851264858275</v>
       </c>
       <c r="E149" s="12">
@@ -5557,7 +5587,7 @@
         <v>0.23</v>
       </c>
       <c r="G149" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.48369399573300831</v>
       </c>
       <c r="H149" s="60"/>
@@ -5566,18 +5596,18 @@
       <c r="K149" s="58"/>
       <c r="M149" s="71"/>
     </row>
-    <row r="150" spans="1:13" s="1" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="57"/>
       <c r="B150" s="61" t="str">
-        <f>B116</f>
+        <f t="shared" si="42"/>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C150" s="59">
-        <f>C116</f>
+        <f t="shared" si="50"/>
         <v>9</v>
       </c>
       <c r="D150" s="12">
-        <f>D116</f>
+        <f t="shared" si="50"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="E150" s="12">
@@ -5587,7 +5617,7 @@
         <v>0.23</v>
       </c>
       <c r="G150" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>1.657135629381286</v>
       </c>
       <c r="H150" s="60"/>
@@ -5596,18 +5626,18 @@
       <c r="K150" s="58"/>
       <c r="M150" s="71"/>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="57"/>
       <c r="B151" s="61" t="str">
-        <f>B117</f>
+        <f t="shared" si="42"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C151" s="59">
-        <f>C117</f>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="D151" s="12">
-        <f>D117</f>
+        <f t="shared" si="50"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E151" s="12">
@@ -5617,7 +5647,7 @@
         <v>0.23</v>
       </c>
       <c r="G151" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.98754190795489183</v>
       </c>
       <c r="H151" s="60"/>
@@ -5626,18 +5656,18 @@
       <c r="K151" s="58"/>
       <c r="M151" s="71"/>
     </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="57"/>
       <c r="B152" s="61" t="str">
-        <f>B118</f>
+        <f t="shared" si="42"/>
         <v xml:space="preserve">-Grid 1(B-C), 2(B-C), 3(B-C), 4(B-C), 5(B-C), </v>
       </c>
       <c r="C152" s="59">
-        <f>C118</f>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="D152" s="12">
-        <f>D118</f>
+        <f t="shared" si="50"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E152" s="12">
@@ -5647,7 +5677,7 @@
         <v>0.23</v>
       </c>
       <c r="G152" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.26200091435537948</v>
       </c>
       <c r="H152" s="60"/>
@@ -5656,10 +5686,10 @@
       <c r="K152" s="58"/>
       <c r="M152" s="71"/>
     </row>
-    <row r="153" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="57"/>
       <c r="B153" s="61" t="str">
-        <f>B119</f>
+        <f t="shared" si="42"/>
         <v>-Second floor</v>
       </c>
       <c r="C153" s="59"/>
@@ -5673,18 +5703,18 @@
       <c r="K153" s="58"/>
       <c r="M153" s="71"/>
     </row>
-    <row r="154" spans="1:13" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="57"/>
       <c r="B154" s="61" t="str">
-        <f>B120</f>
+        <f t="shared" si="42"/>
         <v>-Grid (A-A)(1-2), (B-B)(1-2), (C-C)(1-2)</v>
       </c>
       <c r="C154" s="59">
-        <f>C120</f>
+        <f t="shared" ref="C154:D156" si="51">C120</f>
         <v>3</v>
       </c>
       <c r="D154" s="12">
-        <f>D120</f>
+        <f t="shared" si="51"/>
         <v>3.047851264858275</v>
       </c>
       <c r="E154" s="12">
@@ -5694,7 +5724,7 @@
         <v>0.23</v>
       </c>
       <c r="G154" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.48369399573300831</v>
       </c>
       <c r="H154" s="60"/>
@@ -5703,18 +5733,18 @@
       <c r="K154" s="58"/>
       <c r="M154" s="71"/>
     </row>
-    <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="57"/>
       <c r="B155" s="61" t="str">
-        <f>B121</f>
+        <f t="shared" si="42"/>
         <v>-Grid 1(A-B), 2(A-B)</v>
       </c>
       <c r="C155" s="59">
-        <f>C121</f>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="D155" s="12">
-        <f>D121</f>
+        <f t="shared" si="51"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E155" s="12">
@@ -5724,7 +5754,7 @@
         <v>0.23</v>
       </c>
       <c r="G155" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.39501676318195678</v>
       </c>
       <c r="H155" s="60"/>
@@ -5733,18 +5763,18 @@
       <c r="K155" s="58"/>
       <c r="M155" s="71"/>
     </row>
-    <row r="156" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="57"/>
       <c r="B156" s="61" t="str">
-        <f>B122</f>
+        <f t="shared" si="42"/>
         <v>-Grid 1(B-C), 2(B-C)</v>
       </c>
       <c r="C156" s="59">
-        <f>C122</f>
+        <f t="shared" si="51"/>
         <v>2</v>
       </c>
       <c r="D156" s="12">
-        <f>D122</f>
+        <f t="shared" si="51"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E156" s="12">
@@ -5754,7 +5784,7 @@
         <v>0.23</v>
       </c>
       <c r="G156" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0.10480036574215179</v>
       </c>
       <c r="H156" s="60"/>
@@ -5763,10 +5793,10 @@
       <c r="K156" s="58"/>
       <c r="M156" s="71"/>
     </row>
-    <row r="157" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="57"/>
-      <c r="B157" s="96" t="s">
-        <v>76</v>
+      <c r="B157" s="75" t="s">
+        <v>74</v>
       </c>
       <c r="C157" s="59"/>
       <c r="D157" s="12"/>
@@ -5779,7 +5809,7 @@
       <c r="K157" s="58"/>
       <c r="M157" s="71"/>
     </row>
-    <row r="158" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="57"/>
       <c r="B158" s="61" t="str">
         <f>B143</f>
@@ -5800,7 +5830,7 @@
         <v>0.127</v>
       </c>
       <c r="G158" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>14.652537988758155</v>
       </c>
       <c r="H158" s="60"/>
@@ -5809,7 +5839,7 @@
       <c r="K158" s="58"/>
       <c r="M158" s="71"/>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="57"/>
       <c r="B159" s="61" t="str">
         <f>B148</f>
@@ -5819,18 +5849,18 @@
         <v>1</v>
       </c>
       <c r="D159" s="12">
-        <f t="shared" ref="D159" si="42">54/3.281</f>
+        <f t="shared" ref="D159" si="52">54/3.281</f>
         <v>16.458396830234683</v>
       </c>
       <c r="E159" s="12">
-        <f t="shared" ref="E159:E160" si="43">23/3.281</f>
+        <f t="shared" ref="E159:E160" si="53">23/3.281</f>
         <v>7.0100579091740318</v>
       </c>
       <c r="F159" s="12">
         <v>0.127</v>
       </c>
       <c r="G159" s="62">
-        <f t="shared" ref="G159:G160" si="44">PRODUCT(C159:F159)</f>
+        <f t="shared" ref="G159:G160" si="54">PRODUCT(C159:F159)</f>
         <v>14.652537988758155</v>
       </c>
       <c r="H159" s="60"/>
@@ -5839,7 +5869,7 @@
       <c r="K159" s="58"/>
       <c r="M159" s="71"/>
     </row>
-    <row r="160" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="57"/>
       <c r="B160" s="61" t="str">
         <f>B153</f>
@@ -5853,14 +5883,14 @@
         <v>4.97805547089302</v>
       </c>
       <c r="E160" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F160" s="12">
         <v>0.127</v>
       </c>
       <c r="G160" s="62">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>4.4318500550071658</v>
       </c>
       <c r="H160" s="60"/>
@@ -5869,7 +5899,7 @@
       <c r="K160" s="58"/>
       <c r="M160" s="71"/>
     </row>
-    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
       <c r="B161" s="35" t="s">
         <v>33</v>
@@ -5883,7 +5913,7 @@
         <v>107.1485367432511</v>
       </c>
       <c r="H161" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I161" s="23">
         <v>15604.23</v>
@@ -5894,7 +5924,7 @@
       </c>
       <c r="K161" s="21"/>
     </row>
-    <row r="162" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
       <c r="B162" s="35"/>
       <c r="C162" s="19"/>
@@ -5907,12 +5937,12 @@
       <c r="J162" s="39"/>
       <c r="K162" s="21"/>
     </row>
-    <row r="163" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A163" s="18">
         <v>7</v>
       </c>
-      <c r="B163" s="93" t="s">
-        <v>78</v>
+      <c r="B163" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="20"/>
@@ -5928,10 +5958,10 @@
         <v>88.289962825278806</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C164" s="19"/>
       <c r="D164" s="20"/>
@@ -5947,7 +5977,7 @@
         <v>1377696.8866171003</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
       <c r="B165" s="35" t="str">
         <f>B134</f>
@@ -5970,7 +6000,7 @@
         <v>0.66138372447424565</v>
       </c>
       <c r="G165" s="62">
-        <f t="shared" ref="G165" si="45">PRODUCT(C165:F165)</f>
+        <f t="shared" ref="G165" si="55">PRODUCT(C165:F165)</f>
         <v>1.3909014626248994</v>
       </c>
       <c r="H165" s="22"/>
@@ -5978,26 +6008,26 @@
       <c r="J165" s="39"/>
       <c r="K165" s="21"/>
     </row>
-    <row r="166" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="35" t="str">
-        <f t="shared" ref="B166:B168" si="46">B135</f>
+        <f t="shared" ref="B166:B168" si="56">B135</f>
         <v>-Grid A(2-3), A(3-4), A(4-5), B(2-3), B(3-4), B(4-5), C(2-3), C(3-4), C(4-5)</v>
       </c>
       <c r="C166" s="19">
-        <f t="shared" ref="C166:E166" si="47">C145</f>
+        <f t="shared" ref="C166:E166" si="57">C145</f>
         <v>9</v>
       </c>
       <c r="D166" s="20">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>3.4806461444681496</v>
       </c>
       <c r="E166" s="21">
-        <f t="shared" si="47"/>
+        <f t="shared" si="57"/>
         <v>0.23</v>
       </c>
       <c r="F166" s="21">
-        <f t="shared" ref="F166:F168" si="48">2.17/3.281</f>
+        <f t="shared" ref="F166:F168" si="58">2.17/3.281</f>
         <v>0.66138372447424565</v>
       </c>
       <c r="G166" s="62">
@@ -6009,30 +6039,30 @@
       <c r="J166" s="39"/>
       <c r="K166" s="21"/>
     </row>
-    <row r="167" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="18"/>
       <c r="B167" s="35" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="56"/>
         <v>-Grid 1(A-B), 2(A-B), 3(A-B), 4(A-B), 5(A-B)</v>
       </c>
       <c r="C167" s="19">
-        <f t="shared" ref="C167:E167" si="49">C146</f>
+        <f t="shared" ref="C167:E167" si="59">C146</f>
         <v>5</v>
       </c>
       <c r="D167" s="20">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>3.7336177994513866</v>
       </c>
       <c r="E167" s="21">
-        <f t="shared" si="49"/>
+        <f t="shared" si="59"/>
         <v>0.23</v>
       </c>
       <c r="F167" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.66138372447424565</v>
       </c>
       <c r="G167" s="62">
-        <f t="shared" ref="G167:G170" si="50">PRODUCT(C167:F167)</f>
+        <f t="shared" ref="G167:G170" si="60">PRODUCT(C167:F167)</f>
         <v>2.8397571528591694</v>
       </c>
       <c r="H167" s="22"/>
@@ -6040,30 +6070,30 @@
       <c r="J167" s="39"/>
       <c r="K167" s="21"/>
     </row>
-    <row r="168" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="35" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="56"/>
         <v xml:space="preserve">-Grid 1(B-C), 2(B-C), 3(B-C), 4(B-C), 5(B-C), </v>
       </c>
       <c r="C168" s="19">
-        <f t="shared" ref="C168:E168" si="51">C147</f>
+        <f t="shared" ref="C168:E168" si="61">C147</f>
         <v>5</v>
       </c>
       <c r="D168" s="20">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.99055166107893933</v>
       </c>
       <c r="E168" s="21">
-        <f t="shared" si="51"/>
+        <f t="shared" si="61"/>
         <v>0.23</v>
       </c>
       <c r="F168" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.66138372447424565</v>
       </c>
       <c r="G168" s="62">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>0.75340495892182058</v>
       </c>
       <c r="H168" s="22"/>
@@ -6071,10 +6101,10 @@
       <c r="J168" s="39"/>
       <c r="K168" s="21"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
       <c r="B169" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C169" s="19"/>
       <c r="D169" s="20"/>
@@ -6086,10 +6116,10 @@
       <c r="J169" s="39"/>
       <c r="K169" s="21"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
       <c r="B170" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C170" s="19">
         <v>3</v>
@@ -6106,7 +6136,7 @@
         <v>2.48796098750381</v>
       </c>
       <c r="G170" s="62">
-        <f t="shared" si="50"/>
+        <f t="shared" si="60"/>
         <v>6.409475844826563</v>
       </c>
       <c r="H170" s="22"/>
@@ -6114,10 +6144,10 @@
       <c r="J170" s="39"/>
       <c r="K170" s="21"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="18"/>
       <c r="B171" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C171" s="19">
         <v>1</v>
@@ -6130,11 +6160,11 @@
         <v>0.23</v>
       </c>
       <c r="F171" s="21">
-        <f t="shared" ref="F171:F174" si="52">(9.333-1.17)/3.281</f>
+        <f t="shared" ref="F171:F174" si="62">(9.333-1.17)/3.281</f>
         <v>2.48796098750381</v>
       </c>
       <c r="G171" s="62">
-        <f t="shared" ref="G171" si="53">PRODUCT(C171:F171)</f>
+        <f t="shared" ref="G171" si="63">PRODUCT(C171:F171)</f>
         <v>0.5668243944404443</v>
       </c>
       <c r="H171" s="22"/>
@@ -6142,10 +6172,10 @@
       <c r="J171" s="39"/>
       <c r="K171" s="21"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="18"/>
       <c r="B172" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C172" s="19">
         <v>1</v>
@@ -6158,11 +6188,11 @@
         <v>0.23</v>
       </c>
       <c r="F172" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G172" s="62">
-        <f t="shared" ref="G172" si="54">PRODUCT(C172:F172)</f>
+        <f t="shared" ref="G172" si="64">PRODUCT(C172:F172)</f>
         <v>7.700091389090959</v>
       </c>
       <c r="H172" s="22"/>
@@ -6170,10 +6200,10 @@
       <c r="J172" s="39"/>
       <c r="K172" s="21"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
       <c r="B173" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C173" s="19">
         <v>3</v>
@@ -6186,11 +6216,11 @@
         <v>0.23</v>
       </c>
       <c r="F173" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G173" s="62">
-        <f t="shared" ref="G173" si="55">PRODUCT(C173:F173)</f>
+        <f t="shared" ref="G173" si="65">PRODUCT(C173:F173)</f>
         <v>5.9750190452386471</v>
       </c>
       <c r="H173" s="22"/>
@@ -6198,10 +6228,10 @@
       <c r="J173" s="39"/>
       <c r="K173" s="21"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
       <c r="B174" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C174" s="19">
         <v>1</v>
@@ -6214,11 +6244,11 @@
         <v>0.23</v>
       </c>
       <c r="F174" s="21">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G174" s="62">
-        <f t="shared" ref="G174" si="56">PRODUCT(C174:F174)</f>
+        <f t="shared" ref="G174" si="66">PRODUCT(C174:F174)</f>
         <v>0.6976300239267007</v>
       </c>
       <c r="H174" s="22"/>
@@ -6226,10 +6256,10 @@
       <c r="J174" s="39"/>
       <c r="K174" s="21"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
       <c r="B175" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C175" s="19">
         <v>1</v>
@@ -6246,7 +6276,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G175" s="62">
-        <f t="shared" ref="G175:G176" si="57">PRODUCT(C175:F175)</f>
+        <f t="shared" ref="G175:G176" si="67">PRODUCT(C175:F175)</f>
         <v>0.76206871534416132</v>
       </c>
       <c r="H175" s="22"/>
@@ -6254,10 +6284,10 @@
       <c r="J175" s="39"/>
       <c r="K175" s="21"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
       <c r="B176" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C176" s="19">
         <v>-3</v>
@@ -6274,7 +6304,7 @@
         <v>1.3715330691862238</v>
       </c>
       <c r="G176" s="62">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>-2.0190505102619505</v>
       </c>
       <c r="H176" s="22"/>
@@ -6282,10 +6312,10 @@
       <c r="J176" s="39"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C177" s="19">
         <v>-3</v>
@@ -6310,10 +6340,10 @@
       <c r="J177" s="39"/>
       <c r="K177" s="21"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
       <c r="B178" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C178" s="19">
         <v>-1</v>
@@ -6338,10 +6368,10 @@
       <c r="J178" s="39"/>
       <c r="K178" s="21"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
       <c r="B179" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C179" s="19">
         <v>1</v>
@@ -6354,7 +6384,7 @@
         <v>0.1</v>
       </c>
       <c r="F179" s="21">
-        <f t="shared" ref="F179" si="58">(9.333-1.17)/3.281</f>
+        <f t="shared" ref="F179" si="68">(9.333-1.17)/3.281</f>
         <v>2.48796098750381</v>
       </c>
       <c r="G179" s="62">
@@ -6366,10 +6396,10 @@
       <c r="J179" s="39"/>
       <c r="K179" s="21"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
       <c r="B180" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C180" s="19">
         <v>1</v>
@@ -6393,10 +6423,10 @@
       <c r="J180" s="39"/>
       <c r="K180" s="21"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C181" s="19">
         <v>1</v>
@@ -6413,7 +6443,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G181" s="62">
-        <f t="shared" ref="G181" si="59">PRODUCT(C181:F181)</f>
+        <f t="shared" ref="G181" si="69">PRODUCT(C181:F181)</f>
         <v>2.5332986436272269</v>
       </c>
       <c r="H181" s="22"/>
@@ -6421,10 +6451,10 @@
       <c r="J181" s="39"/>
       <c r="K181" s="21"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C182" s="19">
         <v>-2</v>
@@ -6449,10 +6479,10 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="20"/>
@@ -6464,10 +6494,10 @@
       <c r="J183" s="39"/>
       <c r="K183" s="21"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C184" s="19">
         <v>3</v>
@@ -6480,11 +6510,11 @@
         <v>0.23</v>
       </c>
       <c r="F184" s="21">
-        <f t="shared" ref="F184:F188" si="60">(9.333-1.17)/3.281</f>
+        <f t="shared" ref="F184:F188" si="70">(9.333-1.17)/3.281</f>
         <v>2.48796098750381</v>
       </c>
       <c r="G184" s="62">
-        <f t="shared" ref="G184:G190" si="61">PRODUCT(C184:F184)</f>
+        <f t="shared" ref="G184:G190" si="71">PRODUCT(C184:F184)</f>
         <v>6.409475844826563</v>
       </c>
       <c r="H184" s="22"/>
@@ -6492,10 +6522,10 @@
       <c r="J184" s="39"/>
       <c r="K184" s="21"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C185" s="19">
         <v>1</v>
@@ -6508,11 +6538,11 @@
         <v>0.23</v>
       </c>
       <c r="F185" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G185" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.5668243944404443</v>
       </c>
       <c r="H185" s="22"/>
@@ -6520,10 +6550,10 @@
       <c r="J185" s="39"/>
       <c r="K185" s="21"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C186" s="19">
         <v>1</v>
@@ -6536,11 +6566,11 @@
         <v>0.23</v>
       </c>
       <c r="F186" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G186" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>7.700091389090959</v>
       </c>
       <c r="H186" s="22"/>
@@ -6548,10 +6578,10 @@
       <c r="J186" s="39"/>
       <c r="K186" s="21"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C187" s="19">
         <v>3</v>
@@ -6564,11 +6594,11 @@
         <v>0.23</v>
       </c>
       <c r="F187" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G187" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>5.9750190452386471</v>
       </c>
       <c r="H187" s="22"/>
@@ -6576,10 +6606,10 @@
       <c r="J187" s="39"/>
       <c r="K187" s="21"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C188" s="19">
         <v>1</v>
@@ -6592,11 +6622,11 @@
         <v>0.23</v>
       </c>
       <c r="F188" s="21">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G188" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.6976300239267007</v>
       </c>
       <c r="H188" s="22"/>
@@ -6604,10 +6634,10 @@
       <c r="J188" s="39"/>
       <c r="K188" s="21"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
       <c r="B189" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C189" s="19">
         <v>1</v>
@@ -6624,7 +6654,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G189" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>0.76206871534416132</v>
       </c>
       <c r="H189" s="22"/>
@@ -6632,10 +6662,10 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C190" s="19">
         <v>-3</v>
@@ -6652,7 +6682,7 @@
         <v>1.3715330691862238</v>
       </c>
       <c r="G190" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>-2.0190505102619505</v>
       </c>
       <c r="H190" s="22"/>
@@ -6660,10 +6690,10 @@
       <c r="J190" s="39"/>
       <c r="K190" s="21"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="18"/>
       <c r="B191" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C191" s="19">
         <v>-3</v>
@@ -6688,10 +6718,10 @@
       <c r="J191" s="39"/>
       <c r="K191" s="21"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
       <c r="B192" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C192" s="19">
         <v>-1</v>
@@ -6716,10 +6746,10 @@
       <c r="J192" s="39"/>
       <c r="K192" s="21"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C193" s="19">
         <v>1</v>
@@ -6732,7 +6762,7 @@
         <v>0.1</v>
       </c>
       <c r="F193" s="21">
-        <f t="shared" ref="F193" si="62">(9.333-1.17)/3.281</f>
+        <f t="shared" ref="F193" si="72">(9.333-1.17)/3.281</f>
         <v>2.48796098750381</v>
       </c>
       <c r="G193" s="62">
@@ -6744,10 +6774,10 @@
       <c r="J193" s="39"/>
       <c r="K193" s="21"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C194" s="19">
         <v>1</v>
@@ -6771,10 +6801,10 @@
       <c r="J194" s="39"/>
       <c r="K194" s="21"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
       <c r="B195" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C195" s="19">
         <v>1</v>
@@ -6791,7 +6821,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G195" s="62">
-        <f t="shared" ref="G195" si="63">PRODUCT(C195:F195)</f>
+        <f t="shared" ref="G195" si="73">PRODUCT(C195:F195)</f>
         <v>2.5332986436272269</v>
       </c>
       <c r="H195" s="22"/>
@@ -6799,10 +6829,10 @@
       <c r="J195" s="39"/>
       <c r="K195" s="21"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
       <c r="B196" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C196" s="19">
         <v>-2</v>
@@ -6827,10 +6857,10 @@
       <c r="J196" s="39"/>
       <c r="K196" s="21"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="18"/>
       <c r="B197" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C197" s="19"/>
       <c r="D197" s="20"/>
@@ -6842,10 +6872,10 @@
       <c r="J197" s="39"/>
       <c r="K197" s="21"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
       <c r="B198" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C198" s="19">
         <v>2</v>
@@ -6858,11 +6888,11 @@
         <v>0.23</v>
       </c>
       <c r="F198" s="21">
-        <f t="shared" ref="F198:F199" si="64">(9.333-1.17)/3.281</f>
+        <f t="shared" ref="F198:F199" si="74">(9.333-1.17)/3.281</f>
         <v>2.48796098750381</v>
       </c>
       <c r="G198" s="62">
-        <f t="shared" ref="G198:G199" si="65">PRODUCT(C198:F198)</f>
+        <f t="shared" ref="G198:G199" si="75">PRODUCT(C198:F198)</f>
         <v>5.4031445353122969</v>
       </c>
       <c r="H198" s="22"/>
@@ -6870,10 +6900,10 @@
       <c r="J198" s="39"/>
       <c r="K198" s="21"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="18"/>
       <c r="B199" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C199" s="19">
         <v>2</v>
@@ -6886,11 +6916,11 @@
         <v>0.23</v>
       </c>
       <c r="F199" s="21">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>2.48796098750381</v>
       </c>
       <c r="G199" s="62">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>3.4881501196335036</v>
       </c>
       <c r="H199" s="22"/>
@@ -6898,10 +6928,10 @@
       <c r="J199" s="39"/>
       <c r="K199" s="21"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="18"/>
       <c r="B200" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C200" s="19">
         <v>-1</v>
@@ -6926,10 +6956,10 @@
       <c r="J200" s="39"/>
       <c r="K200" s="21"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C201" s="19">
         <f>2*3</f>
@@ -6946,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="G201" s="62">
-        <f t="shared" ref="G201:G202" si="66">PRODUCT(C201:F201)</f>
+        <f t="shared" ref="G201:G202" si="76">PRODUCT(C201:F201)</f>
         <v>2.0883876866808899</v>
       </c>
       <c r="H201" s="22"/>
@@ -6954,10 +6984,10 @@
       <c r="J201" s="39"/>
       <c r="K201" s="21"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
       <c r="B202" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C202" s="19">
         <v>1</v>
@@ -6973,7 +7003,7 @@
         <v>1</v>
       </c>
       <c r="G202" s="62">
-        <f t="shared" si="66"/>
+        <f t="shared" si="76"/>
         <v>0.47241694605303258</v>
       </c>
       <c r="H202" s="22"/>
@@ -6981,7 +7011,7 @@
       <c r="J202" s="39"/>
       <c r="K202" s="21"/>
     </row>
-    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
       <c r="B203" s="35" t="s">
         <v>33</v>
@@ -6995,7 +7025,7 @@
         <v>64.948948295539807</v>
       </c>
       <c r="H203" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I203" s="23">
         <v>16517.169999999998</v>
@@ -7006,7 +7036,7 @@
       </c>
       <c r="K203" s="21"/>
     </row>
-    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="18"/>
       <c r="B204" s="35"/>
       <c r="C204" s="19"/>
@@ -7019,12 +7049,12 @@
       <c r="J204" s="39"/>
       <c r="K204" s="21"/>
     </row>
-    <row r="205" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A205" s="18">
         <v>8</v>
       </c>
-      <c r="B205" s="93" t="s">
-        <v>103</v>
+      <c r="B205" s="72" t="s">
+        <v>101</v>
       </c>
       <c r="C205" s="19"/>
       <c r="D205" s="20"/>
@@ -7036,7 +7066,7 @@
       <c r="J205" s="39"/>
       <c r="K205" s="21"/>
     </row>
-    <row r="206" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="57"/>
       <c r="B206" s="61" t="str">
         <f>B158</f>
@@ -7055,7 +7085,7 @@
       </c>
       <c r="F206" s="12"/>
       <c r="G206" s="62">
-        <f t="shared" ref="G206:G207" si="67">PRODUCT(C206:F206)</f>
+        <f t="shared" ref="G206:G207" si="77">PRODUCT(C206:F206)</f>
         <v>88.249274660632764</v>
       </c>
       <c r="H206" s="60"/>
@@ -7064,7 +7094,7 @@
       <c r="K206" s="58"/>
       <c r="M206" s="71"/>
     </row>
-    <row r="207" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="57"/>
       <c r="B207" s="61" t="str">
         <f>B159</f>
@@ -7074,16 +7104,16 @@
         <v>1</v>
       </c>
       <c r="D207" s="12">
-        <f t="shared" ref="D207:D208" si="68">54/3.281</f>
+        <f t="shared" ref="D207:D208" si="78">54/3.281</f>
         <v>16.458396830234683</v>
       </c>
       <c r="E207" s="12">
-        <f t="shared" ref="E207:E209" si="69">23/3.281</f>
+        <f t="shared" ref="E207:E209" si="79">23/3.281</f>
         <v>7.0100579091740318</v>
       </c>
       <c r="F207" s="12"/>
       <c r="G207" s="62">
-        <f t="shared" si="67"/>
+        <f t="shared" si="77"/>
         <v>115.37431487211146</v>
       </c>
       <c r="H207" s="60"/>
@@ -7092,7 +7122,7 @@
       <c r="K207" s="58"/>
       <c r="M207" s="71"/>
     </row>
-    <row r="208" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="57"/>
       <c r="B208" s="61" t="str">
         <f>B160</f>
@@ -7102,16 +7132,16 @@
         <v>1</v>
       </c>
       <c r="D208" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="78"/>
         <v>16.458396830234683</v>
       </c>
       <c r="E208" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F208" s="12"/>
       <c r="G208" s="62">
-        <f t="shared" ref="G208" si="70">PRODUCT(C208:F208)</f>
+        <f t="shared" ref="G208" si="80">PRODUCT(C208:F208)</f>
         <v>115.37431487211146</v>
       </c>
       <c r="H208" s="60"/>
@@ -7120,10 +7150,10 @@
       <c r="K208" s="58"/>
       <c r="M208" s="71"/>
     </row>
-    <row r="209" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="57"/>
       <c r="B209" s="61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C209" s="59">
         <v>1</v>
@@ -7133,12 +7163,12 @@
         <v>4.97805547089302</v>
       </c>
       <c r="E209" s="12">
-        <f t="shared" si="69"/>
+        <f t="shared" si="79"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F209" s="12"/>
       <c r="G209" s="62">
-        <f t="shared" ref="G209" si="71">PRODUCT(C209:F209)</f>
+        <f t="shared" ref="G209" si="81">PRODUCT(C209:F209)</f>
         <v>34.896457126040673</v>
       </c>
       <c r="H209" s="60"/>
@@ -7147,7 +7177,7 @@
       <c r="K209" s="58"/>
       <c r="M209" s="71"/>
     </row>
-    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
       <c r="B210" s="35" t="s">
         <v>33</v>
@@ -7172,7 +7202,7 @@
       </c>
       <c r="K210" s="21"/>
     </row>
-    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
       <c r="B211" s="35"/>
       <c r="C211" s="19"/>
@@ -7185,12 +7215,12 @@
       <c r="J211" s="39"/>
       <c r="K211" s="21"/>
     </row>
-    <row r="212" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A212" s="18">
         <v>9</v>
       </c>
-      <c r="B212" s="93" t="s">
-        <v>105</v>
+      <c r="B212" s="72" t="s">
+        <v>103</v>
       </c>
       <c r="C212" s="19"/>
       <c r="D212" s="20"/>
@@ -7202,7 +7232,7 @@
       <c r="J212" s="39"/>
       <c r="K212" s="21"/>
     </row>
-    <row r="213" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="57"/>
       <c r="B213" s="61" t="str">
         <f>B206</f>
@@ -7221,7 +7251,7 @@
       </c>
       <c r="F213" s="12"/>
       <c r="G213" s="62">
-        <f t="shared" ref="G213:G216" si="72">PRODUCT(C213:F213)</f>
+        <f t="shared" ref="G213:G216" si="82">PRODUCT(C213:F213)</f>
         <v>88.249274660632764</v>
       </c>
       <c r="H213" s="60"/>
@@ -7230,26 +7260,26 @@
       <c r="K213" s="58"/>
       <c r="M213" s="71"/>
     </row>
-    <row r="214" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="57"/>
       <c r="B214" s="61" t="str">
-        <f t="shared" ref="B214:B216" si="73">B207</f>
+        <f t="shared" ref="B214:B216" si="83">B207</f>
         <v>-First floor</v>
       </c>
       <c r="C214" s="59">
         <v>1</v>
       </c>
       <c r="D214" s="12">
-        <f t="shared" ref="D214:D215" si="74">54/3.281</f>
+        <f t="shared" ref="D214:D215" si="84">54/3.281</f>
         <v>16.458396830234683</v>
       </c>
       <c r="E214" s="12">
-        <f t="shared" ref="E214:E216" si="75">23/3.281</f>
+        <f t="shared" ref="E214:E216" si="85">23/3.281</f>
         <v>7.0100579091740318</v>
       </c>
       <c r="F214" s="12"/>
       <c r="G214" s="62">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>115.37431487211146</v>
       </c>
       <c r="H214" s="60"/>
@@ -7258,26 +7288,26 @@
       <c r="K214" s="58"/>
       <c r="M214" s="71"/>
     </row>
-    <row r="215" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="57"/>
       <c r="B215" s="61" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-Second floor</v>
       </c>
       <c r="C215" s="59">
         <v>1</v>
       </c>
       <c r="D215" s="12">
-        <f t="shared" si="74"/>
+        <f t="shared" si="84"/>
         <v>16.458396830234683</v>
       </c>
       <c r="E215" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F215" s="12"/>
       <c r="G215" s="62">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>115.37431487211146</v>
       </c>
       <c r="H215" s="60"/>
@@ -7286,10 +7316,10 @@
       <c r="K215" s="58"/>
       <c r="M215" s="71"/>
     </row>
-    <row r="216" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="57"/>
       <c r="B216" s="61" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="83"/>
         <v>-Roof</v>
       </c>
       <c r="C216" s="59">
@@ -7300,12 +7330,12 @@
         <v>4.97805547089302</v>
       </c>
       <c r="E216" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="85"/>
         <v>7.0100579091740318</v>
       </c>
       <c r="F216" s="12"/>
       <c r="G216" s="62">
-        <f t="shared" si="72"/>
+        <f t="shared" si="82"/>
         <v>34.896457126040673</v>
       </c>
       <c r="H216" s="60"/>
@@ -7314,7 +7344,7 @@
       <c r="K216" s="58"/>
       <c r="M216" s="71"/>
     </row>
-    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="18"/>
       <c r="B217" s="35" t="s">
         <v>33</v>
@@ -7339,7 +7369,7 @@
       </c>
       <c r="K217" s="21"/>
     </row>
-    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="35"/>
       <c r="C218" s="19"/>
@@ -7352,12 +7382,12 @@
       <c r="J218" s="39"/>
       <c r="K218" s="21"/>
     </row>
-    <row r="219" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A219" s="18">
         <v>10</v>
       </c>
-      <c r="B219" s="97" t="s">
-        <v>106</v>
+      <c r="B219" s="76" t="s">
+        <v>104</v>
       </c>
       <c r="C219" s="19"/>
       <c r="D219" s="20"/>
@@ -7369,10 +7399,10 @@
       <c r="J219" s="39"/>
       <c r="K219" s="21"/>
     </row>
-    <row r="220" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="57"/>
       <c r="B220" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C220" s="59">
         <f>3*2</f>
@@ -7388,7 +7418,7 @@
         <v>1.3715330691862238</v>
       </c>
       <c r="G220" s="62">
-        <f t="shared" ref="G220:G221" si="76">PRODUCT(C220:F220)</f>
+        <f t="shared" ref="G220:G221" si="86">PRODUCT(C220:F220)</f>
         <v>17.556960958799568</v>
       </c>
       <c r="H220" s="60"/>
@@ -7397,10 +7427,10 @@
       <c r="K220" s="58"/>
       <c r="M220" s="71"/>
     </row>
-    <row r="221" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="57"/>
       <c r="B221" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C221" s="59">
         <f>3*2</f>
@@ -7416,7 +7446,7 @@
         <v>1.3715330691862238</v>
       </c>
       <c r="G221" s="62">
-        <f t="shared" si="76"/>
+        <f t="shared" si="86"/>
         <v>6.2703431995712755</v>
       </c>
       <c r="H221" s="60"/>
@@ -7425,7 +7455,7 @@
       <c r="K221" s="58"/>
       <c r="M221" s="71"/>
     </row>
-    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
       <c r="B222" s="35" t="s">
         <v>33</v>
@@ -7450,7 +7480,7 @@
       </c>
       <c r="K222" s="21"/>
     </row>
-    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="18"/>
       <c r="B223" s="35"/>
       <c r="C223" s="19"/>
@@ -7463,12 +7493,12 @@
       <c r="J223" s="39"/>
       <c r="K223" s="21"/>
     </row>
-    <row r="224" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A224" s="18">
         <v>11</v>
       </c>
-      <c r="B224" s="97" t="s">
-        <v>112</v>
+      <c r="B224" s="76" t="s">
+        <v>110</v>
       </c>
       <c r="C224" s="19"/>
       <c r="D224" s="20"/>
@@ -7480,10 +7510,10 @@
       <c r="J224" s="39"/>
       <c r="K224" s="21"/>
     </row>
-    <row r="225" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="57"/>
       <c r="B225" s="61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C225" s="59">
         <v>2</v>
@@ -7498,7 +7528,7 @@
         <v>2.4382810118866196</v>
       </c>
       <c r="G225" s="62">
-        <f t="shared" ref="G225:G227" si="77">PRODUCT(C225:F225)</f>
+        <f t="shared" ref="G225:G227" si="87">PRODUCT(C225:F225)</f>
         <v>5.9452142929268375</v>
       </c>
       <c r="H225" s="60"/>
@@ -7507,10 +7537,10 @@
       <c r="K225" s="58"/>
       <c r="M225" s="71"/>
     </row>
-    <row r="226" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="57"/>
       <c r="B226" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C226" s="59">
         <v>1</v>
@@ -7525,7 +7555,7 @@
         <v>2.4382810118866196</v>
       </c>
       <c r="G226" s="62">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>2.415243306501528</v>
       </c>
       <c r="H226" s="60"/>
@@ -7534,10 +7564,10 @@
       <c r="K226" s="58"/>
       <c r="M226" s="71"/>
     </row>
-    <row r="227" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="57"/>
       <c r="B227" s="61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C227" s="59">
         <v>4</v>
@@ -7552,7 +7582,7 @@
         <v>2.1334958854007922</v>
       </c>
       <c r="G227" s="62">
-        <f t="shared" si="77"/>
+        <f t="shared" si="87"/>
         <v>7.8030937594664751</v>
       </c>
       <c r="H227" s="60"/>
@@ -7561,7 +7591,7 @@
       <c r="K227" s="58"/>
       <c r="M227" s="71"/>
     </row>
-    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="18"/>
       <c r="B228" s="35" t="s">
         <v>33</v>
@@ -7586,7 +7616,7 @@
       </c>
       <c r="K228" s="21"/>
     </row>
-    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="18"/>
       <c r="B229" s="35"/>
       <c r="C229" s="19"/>
@@ -7599,12 +7629,12 @@
       <c r="J229" s="39"/>
       <c r="K229" s="21"/>
     </row>
-    <row r="230" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A230" s="18">
         <v>12</v>
       </c>
-      <c r="B230" s="93" t="s">
-        <v>117</v>
+      <c r="B230" s="72" t="s">
+        <v>115</v>
       </c>
       <c r="C230" s="19"/>
       <c r="D230" s="20"/>
@@ -7616,10 +7646,10 @@
       <c r="J230" s="39"/>
       <c r="K230" s="21"/>
     </row>
-    <row r="231" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="57"/>
       <c r="B231" s="61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C231" s="59">
         <v>1</v>
@@ -7634,7 +7664,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G231" s="62">
-        <f t="shared" ref="G231:G240" si="78">PRODUCT(C231:F231)</f>
+        <f t="shared" ref="G231:G240" si="88">PRODUCT(C231:F231)</f>
         <v>72.617693552257165</v>
       </c>
       <c r="H231" s="60"/>
@@ -7643,10 +7673,10 @@
       <c r="K231" s="58"/>
       <c r="M231" s="71"/>
     </row>
-    <row r="232" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="57"/>
       <c r="B232" s="61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C232" s="59">
         <v>1</v>
@@ -7661,7 +7691,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G232" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>203.218047979923</v>
       </c>
       <c r="H232" s="60"/>
@@ -7670,7 +7700,7 @@
       <c r="K232" s="58"/>
       <c r="M232" s="71"/>
     </row>
-    <row r="233" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="57"/>
       <c r="B233" s="61"/>
       <c r="C233" s="59">
@@ -7686,7 +7716,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G233" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>72.081760444835794</v>
       </c>
       <c r="H233" s="60"/>
@@ -7695,7 +7725,7 @@
       <c r="K233" s="58"/>
       <c r="M233" s="71"/>
     </row>
-    <row r="234" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="57"/>
       <c r="B234" s="61"/>
       <c r="C234" s="59">
@@ -7711,7 +7741,7 @@
         <v>2.7177689728741234</v>
       </c>
       <c r="G234" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>50.876635172203585</v>
       </c>
       <c r="H234" s="60"/>
@@ -7720,10 +7750,10 @@
       <c r="K234" s="58"/>
       <c r="M234" s="71"/>
     </row>
-    <row r="235" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="57"/>
       <c r="B235" s="61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C235" s="59"/>
       <c r="D235" s="12"/>
@@ -7736,10 +7766,10 @@
       <c r="K235" s="58"/>
       <c r="M235" s="71"/>
     </row>
-    <row r="236" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="57"/>
       <c r="B236" s="61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C236" s="59">
         <f>-2*3*2</f>
@@ -7755,7 +7785,7 @@
         <v>1.3715330691862238</v>
       </c>
       <c r="G236" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>-35.113921917599136</v>
       </c>
       <c r="H236" s="60"/>
@@ -7764,10 +7794,10 @@
       <c r="K236" s="58"/>
       <c r="M236" s="71"/>
     </row>
-    <row r="237" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="57"/>
       <c r="B237" s="61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C237" s="59">
         <f>-2*3*2</f>
@@ -7783,7 +7813,7 @@
         <v>1.3715330691862238</v>
       </c>
       <c r="G237" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>-12.540686399142551</v>
       </c>
       <c r="H237" s="60"/>
@@ -7792,10 +7822,10 @@
       <c r="K237" s="58"/>
       <c r="M237" s="71"/>
     </row>
-    <row r="238" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="57"/>
       <c r="B238" s="61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C238" s="59">
         <f>-2*2</f>
@@ -7811,7 +7841,7 @@
         <v>2.4382810118866196</v>
       </c>
       <c r="G238" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>-11.890428585853675</v>
       </c>
       <c r="H238" s="60"/>
@@ -7820,10 +7850,10 @@
       <c r="K238" s="58"/>
       <c r="M238" s="71"/>
     </row>
-    <row r="239" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="57"/>
       <c r="B239" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C239" s="59">
         <f>-2*1</f>
@@ -7839,7 +7869,7 @@
         <v>2.4382810118866196</v>
       </c>
       <c r="G239" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>-4.8304866130030559</v>
       </c>
       <c r="H239" s="60"/>
@@ -7848,10 +7878,10 @@
       <c r="K239" s="58"/>
       <c r="M239" s="71"/>
     </row>
-    <row r="240" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="57"/>
       <c r="B240" s="61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C240" s="59">
         <f>-2*4</f>
@@ -7867,7 +7897,7 @@
         <v>2.1334958854007922</v>
       </c>
       <c r="G240" s="62">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>-15.60618751893295</v>
       </c>
       <c r="H240" s="60"/>
@@ -7876,7 +7906,7 @@
       <c r="K240" s="58"/>
       <c r="M240" s="71"/>
     </row>
-    <row r="241" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="18"/>
       <c r="B241" s="35" t="s">
         <v>33</v>
@@ -7901,7 +7931,7 @@
       </c>
       <c r="K241" s="21"/>
     </row>
-    <row r="242" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="18"/>
       <c r="B242" s="35"/>
       <c r="C242" s="19"/>
@@ -7914,12 +7944,12 @@
       <c r="J242" s="39"/>
       <c r="K242" s="21"/>
     </row>
-    <row r="243" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A243" s="18">
         <v>13</v>
       </c>
-      <c r="B243" s="93" t="s">
-        <v>116</v>
+      <c r="B243" s="72" t="s">
+        <v>114</v>
       </c>
       <c r="C243" s="19"/>
       <c r="D243" s="20"/>
@@ -7931,7 +7961,7 @@
       <c r="J243" s="39"/>
       <c r="K243" s="21"/>
     </row>
-    <row r="244" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="57"/>
       <c r="B244" s="61" t="str">
         <f>B214</f>
@@ -7947,7 +7977,7 @@
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="62">
-        <f t="shared" ref="G244:G246" si="79">PRODUCT(C244:F244)</f>
+        <f t="shared" ref="G244:G246" si="89">PRODUCT(C244:F244)</f>
         <v>46.936909478817434</v>
       </c>
       <c r="H244" s="60"/>
@@ -7956,10 +7986,10 @@
       <c r="K244" s="58"/>
       <c r="M244" s="71"/>
     </row>
-    <row r="245" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="57"/>
       <c r="B245" s="61" t="str">
-        <f t="shared" ref="B245:B246" si="80">B215</f>
+        <f t="shared" ref="B245:B246" si="90">B215</f>
         <v>-Second floor</v>
       </c>
       <c r="C245" s="59">
@@ -7972,7 +8002,7 @@
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="62">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>46.936909478817434</v>
       </c>
       <c r="H245" s="60"/>
@@ -7981,10 +8011,10 @@
       <c r="K245" s="58"/>
       <c r="M245" s="71"/>
     </row>
-    <row r="246" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="57"/>
       <c r="B246" s="61" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>-Roof</v>
       </c>
       <c r="C246" s="59">
@@ -7997,7 +8027,7 @@
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="62">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>23.976226760134104</v>
       </c>
       <c r="H246" s="60"/>
@@ -8006,7 +8036,7 @@
       <c r="K246" s="58"/>
       <c r="M246" s="71"/>
     </row>
-    <row r="247" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="18"/>
       <c r="B247" s="35" t="s">
         <v>33</v>
@@ -8020,7 +8050,7 @@
         <v>117.85004571776898</v>
       </c>
       <c r="H247" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I247" s="23">
         <v>466.74</v>
@@ -8031,7 +8061,7 @@
       </c>
       <c r="K247" s="21"/>
     </row>
-    <row r="248" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="18"/>
       <c r="B248" s="35"/>
       <c r="C248" s="19"/>
@@ -8044,12 +8074,12 @@
       <c r="J248" s="39"/>
       <c r="K248" s="21"/>
     </row>
-    <row r="249" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A249" s="18">
         <v>14</v>
       </c>
-      <c r="B249" s="93" t="s">
-        <v>119</v>
+      <c r="B249" s="72" t="s">
+        <v>117</v>
       </c>
       <c r="C249" s="19"/>
       <c r="D249" s="20"/>
@@ -8061,10 +8091,10 @@
       <c r="J249" s="39"/>
       <c r="K249" s="21"/>
     </row>
-    <row r="250" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="57"/>
       <c r="B250" s="61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C250" s="59">
         <v>1</v>
@@ -8085,7 +8115,7 @@
       <c r="K250" s="58"/>
       <c r="M250" s="71"/>
     </row>
-    <row r="251" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="57"/>
       <c r="B251" s="61"/>
       <c r="C251" s="59">
@@ -8107,10 +8137,10 @@
       <c r="K251" s="58"/>
       <c r="M251" s="71"/>
     </row>
-    <row r="252" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="57"/>
       <c r="B252" s="61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C252" s="59">
         <v>1</v>
@@ -8133,7 +8163,7 @@
       <c r="K252" s="58"/>
       <c r="M252" s="71"/>
     </row>
-    <row r="253" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="18"/>
       <c r="B253" s="35" t="s">
         <v>33</v>
@@ -8158,7 +8188,7 @@
       </c>
       <c r="K253" s="21"/>
     </row>
-    <row r="254" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="18"/>
       <c r="B254" s="35"/>
       <c r="C254" s="19"/>
@@ -8171,12 +8201,12 @@
       <c r="J254" s="39"/>
       <c r="K254" s="21"/>
     </row>
-    <row r="255" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="18">
         <v>15</v>
       </c>
-      <c r="B255" s="98" t="s">
-        <v>122</v>
+      <c r="B255" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="C255" s="19">
         <v>1</v>
@@ -8185,11 +8215,11 @@
       <c r="E255" s="21"/>
       <c r="F255" s="21"/>
       <c r="G255" s="32">
-        <f t="shared" ref="G255" si="81">PRODUCT(C255:F255)</f>
+        <f t="shared" ref="G255" si="91">PRODUCT(C255:F255)</f>
         <v>1</v>
       </c>
       <c r="H255" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I255" s="23">
         <v>200000</v>
@@ -8200,7 +8230,7 @@
       </c>
       <c r="K255" s="21"/>
     </row>
-    <row r="256" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="35"/>
       <c r="C256" s="19"/>
@@ -8213,12 +8243,12 @@
       <c r="J256" s="39"/>
       <c r="K256" s="21"/>
     </row>
-    <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="18">
         <v>16</v>
       </c>
-      <c r="B257" s="98" t="s">
-        <v>124</v>
+      <c r="B257" s="77" t="s">
+        <v>122</v>
       </c>
       <c r="C257" s="19">
         <v>1</v>
@@ -8227,11 +8257,11 @@
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
       <c r="G257" s="32">
-        <f t="shared" ref="G257" si="82">PRODUCT(C257:F257)</f>
+        <f t="shared" ref="G257" si="92">PRODUCT(C257:F257)</f>
         <v>1</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I257" s="23">
         <v>20000</v>
@@ -8242,7 +8272,7 @@
       </c>
       <c r="K257" s="21"/>
     </row>
-    <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="18"/>
       <c r="B258" s="35"/>
       <c r="C258" s="19"/>
@@ -8255,7 +8285,7 @@
       <c r="J258" s="39"/>
       <c r="K258" s="21"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="18">
         <v>17</v>
       </c>
@@ -8269,7 +8299,7 @@
       <c r="E259" s="21"/>
       <c r="F259" s="21"/>
       <c r="G259" s="32">
-        <f t="shared" ref="G259" si="83">PRODUCT(C259:F259)</f>
+        <f t="shared" ref="G259" si="93">PRODUCT(C259:F259)</f>
         <v>1</v>
       </c>
       <c r="H259" s="22" t="s">
@@ -8284,7 +8314,7 @@
       </c>
       <c r="K259" s="21"/>
     </row>
-    <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="18"/>
       <c r="B260" s="24"/>
       <c r="C260" s="19"/>
@@ -8297,7 +8327,7 @@
       <c r="J260" s="39"/>
       <c r="K260" s="21"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="38"/>
       <c r="B261" s="40" t="s">
         <v>17</v>
@@ -8315,7 +8345,7 @@
       </c>
       <c r="K261" s="34"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="49"/>
       <c r="B262" s="52"/>
       <c r="C262" s="53"/>
@@ -8328,16 +8358,16 @@
       <c r="J262" s="51"/>
       <c r="K262" s="48"/>
     </row>
-    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="42"/>
       <c r="B263" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C263" s="74">
+      <c r="C263" s="78">
         <f>J261</f>
         <v>6944644.1291355425</v>
       </c>
-      <c r="D263" s="74"/>
+      <c r="D263" s="78"/>
       <c r="E263" s="44"/>
       <c r="F263" s="43"/>
       <c r="G263" s="44"/>
@@ -8346,16 +8376,16 @@
       <c r="J263" s="46"/>
       <c r="K263" s="47"/>
     </row>
-    <row r="264" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="48"/>
       <c r="B264" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C264" s="74">
+        <v>79</v>
+      </c>
+      <c r="C264" s="78">
         <f>0.13*C263</f>
         <v>902803.73678762058</v>
       </c>
-      <c r="D264" s="74"/>
+      <c r="D264" s="78"/>
       <c r="E264" s="48"/>
       <c r="F264" s="48"/>
       <c r="G264" s="48"/>
@@ -8364,94 +8394,98 @@
       <c r="J264" s="48"/>
       <c r="K264" s="48"/>
     </row>
-    <row r="265" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C265" s="74">
+      <c r="C265" s="78">
         <f>SUM(C263:D264)</f>
         <v>7847447.8659231635</v>
       </c>
-      <c r="D265" s="74"/>
-    </row>
-    <row r="266" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="D265" s="78"/>
+    </row>
+    <row r="266" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C264:D264"/>
     <mergeCell ref="C265:D265"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C263:D263"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B230" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="141" max="10" man="1"/>
+    <brk id="238" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -8463,112 +8497,112 @@
       <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="65" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="84" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
       <c r="N3" s="67"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
       <c r="N4" s="67"/>
     </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="81" t="e">
+      <c r="C6" s="94" t="e">
         <f>F20</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -8576,90 +8610,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="81" t="e">
+      <c r="J6" s="94" t="e">
         <f>I20</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="82"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="I7" s="89" t="s">
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="I7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="str">
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="str">
         <f>estimate!A6</f>
-        <v>Project:- नगर अस्पताल मर्मत</v>
-      </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="I8" s="90" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="str">
+        <v xml:space="preserve">Project:- राष्ट्रिय मा. बि. पुस्तकालय पुर्वाधार निर्माण </v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="I8" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="92" t="str">
         <f>estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="I9" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="I9" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="86" t="s">
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="87" t="s">
+      <c r="K11" s="88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -8678,10 +8712,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="e">
         <f>estimate!#REF!</f>
         <v>#REF!</v>
@@ -8724,7 +8758,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="64" t="e">
         <f>estimate!#REF!</f>
@@ -8749,7 +8783,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="31"/>
       <c r="C15" s="12"/>
@@ -8762,7 +8796,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <f>estimate!A19</f>
         <v>2</v>
@@ -8808,7 +8842,7 @@
       <c r="O16" s="69"/>
       <c r="P16" s="69"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="12"/>
@@ -8824,7 +8858,7 @@
       <c r="O17" s="69"/>
       <c r="P17" s="69"/>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <f>estimate!A259</f>
         <v>17</v>
@@ -8870,7 +8904,7 @@
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
     </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="12"/>
@@ -8886,7 +8920,7 @@
       <c r="O19" s="69"/>
       <c r="P19" s="69"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
         <v>16</v>
@@ -8912,60 +8946,67 @@
       <c r="O20" s="68"/>
       <c r="P20" s="69"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O21" s="68"/>
       <c r="P21" s="69"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O22" s="68"/>
       <c r="P22" s="69"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O23" s="68"/>
       <c r="P23" s="69"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O24" s="68"/>
       <c r="P24" s="69"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O25" s="68"/>
       <c r="P25" s="69"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O26" s="68"/>
       <c r="P26" s="69"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N27" s="54"/>
       <c r="O27" s="68"/>
       <c r="P27" s="69"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O28" s="68"/>
       <c r="P28" s="68"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N29" s="66"/>
       <c r="O29" s="68"/>
       <c r="P29" s="68"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" s="70"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" s="70"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O33" s="68"/>
       <c r="P33" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -8979,13 +9020,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
